--- a/ppt/技术族工程类-区块链工程·开发任职资格1203.xlsx
+++ b/ppt/技术族工程类-区块链工程·开发任职资格1203.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr date1904="1"/>
   <bookViews>
-    <workbookView windowHeight="16740" tabRatio="955" activeTab="3"/>
+    <workbookView windowHeight="16760" tabRatio="955" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="14" r:id="rId1"/>
@@ -12,9 +12,9 @@
     <sheet name="2-通用职级架构及标准" sheetId="11" r:id="rId3"/>
     <sheet name="3-技术族素质能力要求" sheetId="7" r:id="rId4"/>
     <sheet name="4-技术族素质能力辞典" sheetId="13" r:id="rId5"/>
-    <sheet name="xxx类-xxx开发岗位任职资格" sheetId="2" r:id="rId6"/>
+    <sheet name="工程类-区块链工程开发岗位任职资格" sheetId="2" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -2704,7 +2704,7 @@
     </r>
   </si>
   <si>
-    <t>XXXXX端开发岗位任职资格</t>
+    <t>区块链工程开发岗位任职资格</t>
   </si>
   <si>
     <t>层级名称</t>
@@ -2885,10 +2885,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="58">
@@ -3131,25 +3131,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3168,26 +3153,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Helvetica Neue"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3201,14 +3178,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3217,13 +3202,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3241,14 +3219,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Helvetica Neue"/>
@@ -3256,8 +3226,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
@@ -3266,14 +3258,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3336,7 +3336,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3348,127 +3354,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3486,7 +3378,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4054,21 +4054,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -4083,32 +4068,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4145,6 +4104,47 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -4156,152 +4156,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="51" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="51" fillId="0" borderId="0">
+    <xf numFmtId="176" fontId="48" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="41" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="54" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="54" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="41" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="41" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="49" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="50" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="51" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="46" fillId="17" borderId="50" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="38" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="14" borderId="49" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="51" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="13" borderId="53" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="39" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="17" borderId="52" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="14" borderId="50" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="51" fillId="26" borderId="52" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="47" fillId="13" borderId="50" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="55" fillId="17" borderId="52" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="56" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="49" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="48" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="39" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="48" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="39" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="47" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="38" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="48" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="39" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="38" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="10" borderId="47" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="39" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="47" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="38" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="27" borderId="53" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="38" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4438,7 +4438,7 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4474,7 +4474,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4790,100 +4790,100 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="26" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="26" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="26" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1">
+    <xf numFmtId="176" fontId="26" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="27" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1">
+    <xf numFmtId="176" fontId="27" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="28" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1">
+    <xf numFmtId="176" fontId="28" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="28" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="28" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="176" fontId="29" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1">
+    <xf numFmtId="176" fontId="29" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="29" fillId="2" borderId="39" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="176" fontId="29" fillId="2" borderId="39" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="29" fillId="2" borderId="40" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="176" fontId="29" fillId="2" borderId="40" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="30" fillId="2" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="30" fillId="2" borderId="41" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="29" fillId="2" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="176" fontId="29" fillId="2" borderId="29" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="30" fillId="2" borderId="42" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="30" fillId="2" borderId="42" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="29" fillId="2" borderId="43" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="176" fontId="29" fillId="2" borderId="43" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="29" fillId="2" borderId="42" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="176" fontId="29" fillId="2" borderId="42" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="26" fillId="2" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="26" fillId="2" borderId="29" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="31" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1">
+    <xf numFmtId="176" fontId="31" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="31" fillId="2" borderId="42" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="176" fontId="31" fillId="2" borderId="42" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="26" fillId="2" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="176" fontId="26" fillId="2" borderId="29" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="32" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1">
+    <xf numFmtId="176" fontId="32" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="32" fillId="2" borderId="42" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="176" fontId="32" fillId="2" borderId="42" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="30" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="30" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="27" fillId="2" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="176" fontId="27" fillId="2" borderId="29" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="30" fillId="2" borderId="44" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="30" fillId="2" borderId="44" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="30" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1">
+    <xf numFmtId="176" fontId="30" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="58" fontId="33" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="58" fontId="33" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="31" fillId="2" borderId="30" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="31" fillId="2" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="31" fillId="2" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="31" fillId="2" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="31" fillId="2" borderId="45" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="31" fillId="2" borderId="45" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="31" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="31" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="30" fillId="2" borderId="46" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="30" fillId="2" borderId="46" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="30" fillId="2" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="30" fillId="2" borderId="34" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="29" fillId="2" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="176" fontId="29" fillId="2" borderId="36" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="29" fillId="2" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="176" fontId="29" fillId="2" borderId="34" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -4892,20 +4892,20 @@
     <xf numFmtId="0" fontId="35" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="36" fillId="2" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="176" fontId="36" fillId="2" borderId="35" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="36" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1">
+    <xf numFmtId="176" fontId="36" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="36" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="36" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="52">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2 2_20090506-科大讯飞任职资格标准汇总-LBF" xfId="1"/>
-    <cellStyle name="常规 2 2_20090506-科大讯飞任职资格标准汇总-LBF 2" xfId="2"/>
+    <cellStyle name="常规 2 2_20090506-科大讯飞任职资格标准汇总-LBF 2" xfId="1"/>
+    <cellStyle name="常规 2 2_20090506-科大讯飞任职资格标准汇总-LBF" xfId="2"/>
     <cellStyle name="60% - Accent6" xfId="3" builtinId="52"/>
     <cellStyle name="40% - Accent6" xfId="4" builtinId="51"/>
     <cellStyle name="60% - Accent5" xfId="5" builtinId="48"/>
@@ -6121,7 +6121,7 @@
   <dimension ref="B2:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.2857142857143" defaultRowHeight="16.8" outlineLevelCol="4"/>
@@ -6259,8 +6259,8 @@
     <row r="18" s="167" customFormat="1" ht="24.8" spans="2:5">
       <c r="B18" s="185"/>
       <c r="C18" s="188">
-        <f>TODAY()</f>
-        <v>42341</v>
+        <f ca="1">TODAY()</f>
+        <v>42342</v>
       </c>
       <c r="D18" s="175"/>
       <c r="E18" s="197" t="s">
@@ -7020,12 +7020,12 @@
   </sheetPr>
   <dimension ref="A1:K13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D25" sqref="D25"/>
+      <selection pane="bottomRight" activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.4"/>
@@ -7785,14 +7785,14 @@
   </sheetPr>
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.2857142857143" defaultRowHeight="12.8" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="7.85714285714286" style="3" customWidth="1"/>
-    <col min="2" max="2" width="16.8571428571429" style="3" customWidth="1"/>
+    <col min="2" max="2" width="19.9375" style="3" customWidth="1"/>
     <col min="3" max="3" width="30.5714285714286" style="3" customWidth="1"/>
     <col min="4" max="4" width="34.4285714285714" style="3" customWidth="1"/>
     <col min="5" max="5" width="35.4285714285714" style="3" customWidth="1"/>

--- a/ppt/技术族工程类-区块链工程·开发任职资格1203.xlsx
+++ b/ppt/技术族工程类-区块链工程·开发任职资格1203.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27610"/>
   <workbookPr date1904="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/oak/cloud/ppt/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowHeight="16760" tabRatio="955" activeTab="5"/>
+    <workbookView xWindow="860" yWindow="460" windowWidth="32740" windowHeight="20540" tabRatio="955" firstSheet="4" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="14" r:id="rId1"/>
@@ -13,13 +18,22 @@
     <sheet name="3-技术族素质能力要求" sheetId="7" r:id="rId4"/>
     <sheet name="4-技术族素质能力辞典" sheetId="13" r:id="rId5"/>
     <sheet name="工程类-区块链工程开发岗位任职资格" sheetId="2" r:id="rId6"/>
+    <sheet name="Sheet2" sheetId="16" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="290">
   <si>
     <t>目    录</t>
   </si>
@@ -2704,9 +2718,6 @@
     </r>
   </si>
   <si>
-    <t>区块链工程开发岗位任职资格</t>
-  </si>
-  <si>
     <t>层级名称</t>
   </si>
   <si>
@@ -2746,22 +2757,7 @@
     <t>工作职责</t>
   </si>
   <si>
-    <t>例如：产品的开发与维护</t>
-  </si>
-  <si>
-    <t>……</t>
-  </si>
-  <si>
     <t>知识</t>
-  </si>
-  <si>
-    <t>专业知识</t>
-  </si>
-  <si>
-    <t>公司知识</t>
-  </si>
-  <si>
-    <t>行业知识</t>
   </si>
   <si>
     <t>技能</t>
@@ -2878,20 +2874,163 @@
       </rPr>
       <t>⑤                             ⑥</t>
     </r>
+  </si>
+  <si>
+    <t>了解公司基本制度和流程，完成必要的专业实习
+具备本专业基础技能，可以使用常用开发工具，软件和设备。
+初学者，可以在流程指引或他人指导下开展工作</t>
+  </si>
+  <si>
+    <t>具有一定实践经验，熟悉本岗位所需知识技能及工作环节，能够运用现有流程工具解决常规化问题
+角色：项目具体执行着，能独立完成本岗位日常工作，并能够对疑难问题提出判断或者建议</t>
+  </si>
+  <si>
+    <t>熟练掌握本专业知识和技能，了解其他领域知识和技能，能够解决本领域疑难问题
+角色：项目团队的重要成员，骨干。对公司业务特点，流程和客户有一定理解，</t>
+  </si>
+  <si>
+    <t>1.掌握一门开发语言（如Java，C++等）
+2.掌握数据库知识（如MySQL、Oracle、SQL Server、等）
+3.掌握程序设计理念、方法、流程和工具（如面向对象）
+4.熟悉软件工程理论知识（瀑布开发模式、敏捷开发模式、软件研发全生命周期）
+5.熟悉软件架构相关知识
+6.熟悉计算机硬件、网络等知识
+7.熟悉计算机操作系统知识（如windows、Linux等）
+8.了解软件测试理论、方法与工具（如单元、集成测试等）</t>
+  </si>
+  <si>
+    <t>1.精通一门开发语言（如Java，C++等）
+2.精通数据库知识（如MySQL、Oracle、SQL Server、等）
+3.精通程序设计理念、方法、流程和工具（如面向对象）
+4.掌握软件工程理论知识（瀑布开发模式、敏捷开发模式、软件研发全生命周期）
+5.掌握软件架构相关知识
+6.掌握计算机硬件、网络等知识
+7.掌握计算机操作系统知识（如windows、Linux等）
+8.熟悉软件测试理论、方法与工具（如单元、集成测试等）
+9.了解质量监控相关知识</t>
+  </si>
+  <si>
+    <t>1、一门开发语言专家（如Java，C++等）或数据库专家
+2、对行业领域相关技术有全局、前瞻把握</t>
+  </si>
+  <si>
+    <t>深入理解java 集合，多线程编程和JVM原理，熟悉常见数据结构和算法及设计模式；
+3.      精通redis，mq/kafka等常用中间件;
+4.      精通springmvc,熟悉spring boot及其微服务周边中间件，有实践经验优先；
+5.      熟悉MySQL数据库，熟练使用SQL语句，对数据库事务、锁、索引有深入理解</t>
+  </si>
+  <si>
+    <t>1、掌握编程工具；
+2、熟悉开发过程文档的编写；
+3、熟悉公司开发编码规范；
+4、熟悉计算机体系结构知识及设计模式；
+5、了解软件性能调优的相关技术；</t>
+  </si>
+  <si>
+    <t>1、熟悉软件架构相关技术；
+2、掌握开发过程文档的编写；
+3、掌握公司开发编码规范；
+4、掌握计算机体系结构知识及设计模式；
+5、熟悉软件性能调优的相关技术；</t>
+  </si>
+  <si>
+    <t>1、精通软件架构相关技术；
+2、精通开发过程文档的编写；
+3、精通公司开发编码规范；
+4、精通计算机体系结构知识及设计模式；
+5、掌握软件性能调优的相关技术</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1、至少掌握1项开发语言，并掌握该语言的开发框架
+2、至少掌握1种相关数据库
+3、至少掌握使用公司指定的开发平台和框架
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+- 具备计算机科学专业基础技能
+- 可以使用常用开发工具，软件和设备</t>
+  </si>
+  <si>
+    <t>了解公司基本制度和流程，完成必要的专业实习
+可以在流程指引，文档指引或他人指导下开展工作</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+- 了解公司基本制度和流程
+- 完成必要的计算机科学专业知识学习
+- 至少掌握一种编程语言（C/C++、GO，Java等）
+- 至少了解1种相关数据库
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+角色：项目具体执行着，能独立完成本岗位日常工作，并能够对疑难问题提出判断或者建议</t>
+  </si>
+  <si>
+    <t>1、熟悉软件架构相关技术；
+2、掌握开发过程文档的编写；
+3、掌握公司开发编码规范；
+4、掌握计算机体系结构知识及设计模式；
+5、熟悉软件性能调优的相关技术；
+具有一定实践经验，熟悉本岗位所需知识技能及工作环节，能够运用现有流程工具解决常规化问题</t>
+  </si>
+  <si>
+    <t>1、熟悉软件架构相关技术；
+2、掌握开发过程文档的编写；
+3、掌握公司开发编码规范；
+4、掌握计算机体系结构知识及设计模式；
+5、熟悉软件性能调优的相关技术；
+熟练掌握本专业知识和技能，了解其他领域知识和技能，能够解决本领域疑难问题</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1、精通软件架构相关技术；
+2、精通开发过程文档的编写；
+3、精通公司开发编码规范；
+4、精通计算机体系结构知识及设计模式；
+5、掌握软件性能调优的相关技术
+精通公司某个细分专业，在该领域是带头人，有丰富的理论水平和实践经验，能运用多领域知识，解决复杂的专业问题
+</t>
+  </si>
+  <si>
+    <t>引领多领域或关键领域内的技术创新，业内公认的研究开发专家，在行业中具有较强的专业影响力;
+指导和培养架构师;制订公司级中长期的技术规划;参与重大产品决策
+公司内公认专家，在该专业领域内具有国内领先技术水平
+角色：指定本领域/标准岗位的技术发展规划，主导大型项目的规划和实施
+推动本专业人员发展，编制或者审定本领域的标准，流程，
+奠定公司在本领域的竞争优势</t>
+  </si>
+  <si>
+    <t>可以指导他人完成开发任务，承担技术导师角色，培养P5,P6工程师;
+可以带领团队完成较复杂的开发项目
+能够对公司专业领域的技术方向提出引领性的意见，参与公司关键技术方案的讨论和技术把关;
+在某个专业领域有较高的技术水平，能够在该领域做出中长期的系统级技术规划;
+把握本领域的产品发展方向，对产品决策产生影响
+精通公司某个细分专业，在该领域是带头人，有丰富的理论水平和实践经验，能运用多领域知识，解决复杂的专业问题
+角色：可以带领团队完成公司具有挑战的专题项目，能够解决关键技术难题
+规范或者细化工作标准流程，培养和指导团队高效工作</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+角色：项目团队的重要成员，骨干。对公司业务特点，流程和客户有一定理解，
+可以指导他人完成开发任务，承担技术导师角色
+可以单独设计
+具有丰富的研究、设计、开发等知识和经验，理解完整软件开发流程涉及的相关技术，
+包括运维、测试等，并落实在执行方案中。在某个技术方向具有较高的水平， 规划、组织、
+指导完成系统级程序的设计 、开发，制订相关技术方向(Topic)的 中短期规划;理解相关产品的发展方向; 指导、培养工程师
+"熟练掌握本专业知识和技能，了解其他领域知识和技能，能够解决本领域疑难问题
+角色：项目团队的重要成员，骨干。对公司业务特点，流程和客户有一定理解，
+能解决部分突发问题，能够指导P4员工。</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="58">
+  <fonts count="40" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -3123,163 +3262,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
       <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="10"/>
+      <color theme="11"/>
       <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3306,7 +3306,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.79995117038483843"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3318,7 +3318,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3330,168 +3330,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.79995117038483843"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="55">
+  <borders count="46">
     <border>
       <left/>
       <right/>
@@ -3538,17 +3382,6 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -4053,262 +3886,50 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="52">
+  <cellStyleXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="48" fillId="0" borderId="0">
+    <xf numFmtId="164" fontId="37" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="54" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="41" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="51" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="17" borderId="50" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="38" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="14" borderId="49" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="26" borderId="52" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="17" borderId="52" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="48" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="47" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="38" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="38" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="47" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="38" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="52" fillId="27" borderId="53" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="38" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="202">
+  <cellXfs count="211">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -4321,641 +3942,631 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="14" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="15" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="20" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="21" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="22" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="22" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="22" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" xfId="3" applyBorder="1"/>
+    <xf numFmtId="49" fontId="23" fillId="8" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="3" applyFill="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="9" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="26" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="26" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="27" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="28" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="28" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="29" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="29" fillId="2" borderId="38" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="29" fillId="2" borderId="39" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="29" fillId="2" borderId="28" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="30" fillId="2" borderId="41" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="29" fillId="2" borderId="42" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="29" fillId="2" borderId="41" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="26" fillId="2" borderId="28" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="31" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="31" fillId="2" borderId="41" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="26" fillId="2" borderId="28" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="32" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="32" fillId="2" borderId="41" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="30" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="27" fillId="2" borderId="28" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="30" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="33" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="31" fillId="2" borderId="44" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="31" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="29" fillId="2" borderId="35" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="29" fillId="2" borderId="33" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="36" fillId="2" borderId="34" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="36" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="36" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="31" fillId="2" borderId="29" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="31" fillId="2" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="31" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="30" fillId="2" borderId="43" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="30" fillId="2" borderId="40" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="30" fillId="2" borderId="45" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="30" fillId="2" borderId="41" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="30" fillId="2" borderId="33" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="15" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="19" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="16" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="16" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="16"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="20" xfId="16" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="10" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="11" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="15" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="12" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="3" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="16" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="21" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="22" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="23" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="23" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="23" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="12" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="16" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="20" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="16" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="16" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="16" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="16" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="16" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="16" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="12" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="16" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="16" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="16" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="16" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="23" fillId="8" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="16" applyFill="1"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="9" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="16" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="16" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="16" xfId="16" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="16" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="16" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="16" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="26" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="26" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="27" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="28" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="28" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="29" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="29" fillId="2" borderId="39" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="29" fillId="2" borderId="40" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="30" fillId="2" borderId="41" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="29" fillId="2" borderId="29" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="30" fillId="2" borderId="42" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="29" fillId="2" borderId="43" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="29" fillId="2" borderId="42" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="26" fillId="2" borderId="29" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="31" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="31" fillId="2" borderId="42" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="26" fillId="2" borderId="29" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="32" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="32" fillId="2" borderId="42" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="30" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="27" fillId="2" borderId="29" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="30" fillId="2" borderId="44" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="30" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="33" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="31" fillId="2" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="31" fillId="2" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="31" fillId="2" borderId="45" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="31" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="30" fillId="2" borderId="46" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="30" fillId="2" borderId="34" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="29" fillId="2" borderId="36" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="29" fillId="2" borderId="34" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="36" fillId="2" borderId="35" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="36" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="36" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="52">
+  <cellStyles count="14">
+    <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="11" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="8" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="10" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="12" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规 2" xfId="3"/>
+    <cellStyle name="常规 2 2_20090506-科大讯飞任职资格标准汇总-LBF" xfId="2"/>
     <cellStyle name="常规 2 2_20090506-科大讯飞任职资格标准汇总-LBF 2" xfId="1"/>
-    <cellStyle name="常规 2 2_20090506-科大讯飞任职资格标准汇总-LBF" xfId="2"/>
-    <cellStyle name="60% - Accent6" xfId="3" builtinId="52"/>
-    <cellStyle name="40% - Accent6" xfId="4" builtinId="51"/>
-    <cellStyle name="60% - Accent5" xfId="5" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="6" builtinId="49"/>
-    <cellStyle name="40% - Accent5" xfId="7" builtinId="47"/>
-    <cellStyle name="20% - Accent5" xfId="8" builtinId="46"/>
-    <cellStyle name="60% - Accent4" xfId="9" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="10" builtinId="45"/>
-    <cellStyle name="40% - Accent4" xfId="11" builtinId="43"/>
-    <cellStyle name="Accent4" xfId="12" builtinId="41"/>
-    <cellStyle name="Linked Cell" xfId="13" builtinId="24"/>
-    <cellStyle name="40% - Accent3" xfId="14" builtinId="39"/>
-    <cellStyle name="60% - Accent2" xfId="15" builtinId="36"/>
-    <cellStyle name="常规 2" xfId="16"/>
-    <cellStyle name="Accent3" xfId="17" builtinId="37"/>
-    <cellStyle name="40% - Accent2" xfId="18" builtinId="35"/>
-    <cellStyle name="20% - Accent2" xfId="19" builtinId="34"/>
-    <cellStyle name="Accent2" xfId="20" builtinId="33"/>
-    <cellStyle name="40% - Accent1" xfId="21" builtinId="31"/>
-    <cellStyle name="20% - Accent1" xfId="22" builtinId="30"/>
-    <cellStyle name="Accent1" xfId="23" builtinId="29"/>
-    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
-    <cellStyle name="60% - Accent1" xfId="25" builtinId="32"/>
-    <cellStyle name="Bad" xfId="26" builtinId="27"/>
-    <cellStyle name="20% - Accent4" xfId="27" builtinId="42"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Output" xfId="29" builtinId="21"/>
-    <cellStyle name="Currency" xfId="30" builtinId="4"/>
-    <cellStyle name="20% - Accent3" xfId="31" builtinId="38"/>
-    <cellStyle name="Note" xfId="32" builtinId="10"/>
-    <cellStyle name="Input" xfId="33" builtinId="20"/>
-    <cellStyle name="Heading 4" xfId="34" builtinId="19"/>
-    <cellStyle name="Calculation" xfId="35" builtinId="22"/>
-    <cellStyle name="Good" xfId="36" builtinId="26"/>
-    <cellStyle name="Heading 3" xfId="37" builtinId="18"/>
-    <cellStyle name="CExplanatory Text" xfId="38" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="39" builtinId="16"/>
-    <cellStyle name="Comma [0]" xfId="40" builtinId="6"/>
-    <cellStyle name="20% - Accent6" xfId="41" builtinId="50"/>
-    <cellStyle name="Title" xfId="42" builtinId="15"/>
-    <cellStyle name="Currency [0]" xfId="43" builtinId="7"/>
-    <cellStyle name="Warning Text" xfId="44" builtinId="11"/>
-    <cellStyle name="Followed Hyperlink" xfId="45" builtinId="9"/>
-    <cellStyle name="Heading 2" xfId="46" builtinId="17"/>
-    <cellStyle name="Comma" xfId="47" builtinId="3"/>
-    <cellStyle name="Check Cell" xfId="48" builtinId="23"/>
-    <cellStyle name="60% - Accent3" xfId="49" builtinId="40"/>
-    <cellStyle name="Percent" xfId="50" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="51" builtinId="8"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultPivotStyle="PivotStyleMedium7"/>
   <colors>
     <indexedColors>
@@ -5034,7 +4645,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
@@ -5056,7 +4667,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -6112,177 +5723,177 @@
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.2857142857143" defaultRowHeight="16.8" outlineLevelCol="4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.33203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="2.14285714285714" style="170" customWidth="1"/>
-    <col min="2" max="2" width="4" style="170" customWidth="1"/>
-    <col min="3" max="3" width="50.7142857142857" style="170" customWidth="1"/>
-    <col min="4" max="4" width="6.28571428571429" style="170" customWidth="1"/>
-    <col min="5" max="5" width="50.7142857142857" style="170" customWidth="1"/>
-    <col min="6" max="16384" width="10.2857142857143" style="170"/>
+    <col min="1" max="1" width="2.1640625" style="108" customWidth="1"/>
+    <col min="2" max="2" width="4" style="108" customWidth="1"/>
+    <col min="3" max="3" width="50.6640625" style="108" customWidth="1"/>
+    <col min="4" max="4" width="6.33203125" style="108" customWidth="1"/>
+    <col min="5" max="5" width="50.6640625" style="108" customWidth="1"/>
+    <col min="6" max="16384" width="10.33203125" style="108"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5">
-      <c r="B2" s="171"/>
-      <c r="C2" s="172"/>
-      <c r="D2" s="173" t="s">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B2" s="109"/>
+      <c r="C2" s="110"/>
+      <c r="D2" s="143" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="193"/>
-    </row>
-    <row r="3" ht="20.25" customHeight="1" spans="2:5">
-      <c r="B3" s="174"/>
-      <c r="D3" s="175"/>
-      <c r="E3" s="194"/>
-    </row>
-    <row r="4" ht="3" customHeight="1" spans="2:5">
-      <c r="B4" s="174"/>
-      <c r="D4" s="176"/>
-      <c r="E4" s="195"/>
-    </row>
-    <row r="5" spans="2:5">
-      <c r="B5" s="174"/>
-      <c r="D5" s="177"/>
-      <c r="E5" s="196"/>
-    </row>
-    <row r="6" s="165" customFormat="1" ht="19.2" spans="2:5">
-      <c r="B6" s="178"/>
-      <c r="C6" s="179"/>
-      <c r="D6" s="180"/>
-      <c r="E6" s="197" t="s">
+      <c r="E2" s="144"/>
+    </row>
+    <row r="3" spans="2:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B3" s="111"/>
+      <c r="D3" s="145"/>
+      <c r="E3" s="146"/>
+    </row>
+    <row r="4" spans="2:5" ht="3" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B4" s="111"/>
+      <c r="D4" s="113"/>
+      <c r="E4" s="127"/>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B5" s="111"/>
+      <c r="D5" s="114"/>
+      <c r="E5" s="128"/>
+    </row>
+    <row r="6" spans="2:5" s="103" customFormat="1" ht="21" x14ac:dyDescent="0.15">
+      <c r="B6" s="115"/>
+      <c r="C6" s="116"/>
+      <c r="D6" s="117"/>
+      <c r="E6" s="129" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" s="166" customFormat="1" ht="22" spans="2:5">
-      <c r="B7" s="181"/>
-      <c r="C7" s="182"/>
-      <c r="D7" s="183"/>
-      <c r="E7" s="197" t="s">
+    <row r="7" spans="2:5" s="104" customFormat="1" ht="23" x14ac:dyDescent="0.15">
+      <c r="B7" s="118"/>
+      <c r="C7" s="119"/>
+      <c r="D7" s="120"/>
+      <c r="E7" s="129" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="8" s="166" customFormat="1" ht="22" spans="2:5">
-      <c r="B8" s="181"/>
-      <c r="C8" s="182"/>
-      <c r="D8" s="183"/>
-      <c r="E8" s="197" t="s">
+    <row r="8" spans="2:5" s="104" customFormat="1" ht="23" x14ac:dyDescent="0.15">
+      <c r="B8" s="118"/>
+      <c r="C8" s="119"/>
+      <c r="D8" s="120"/>
+      <c r="E8" s="129" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="9" s="166" customFormat="1" ht="24.8" spans="2:5">
-      <c r="B9" s="181"/>
-      <c r="C9" s="184" t="s">
+    <row r="9" spans="2:5" s="104" customFormat="1" ht="26" x14ac:dyDescent="0.15">
+      <c r="B9" s="118"/>
+      <c r="C9" s="121" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="183"/>
-      <c r="E9" s="197" t="s">
+      <c r="D9" s="120"/>
+      <c r="E9" s="129" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" s="167" customFormat="1" ht="24.8" spans="2:5">
-      <c r="B10" s="185"/>
-      <c r="C10" s="184"/>
-      <c r="D10" s="175"/>
-      <c r="E10" s="197" t="s">
+    <row r="10" spans="2:5" s="105" customFormat="1" ht="26" x14ac:dyDescent="0.15">
+      <c r="B10" s="122"/>
+      <c r="C10" s="121"/>
+      <c r="D10" s="112"/>
+      <c r="E10" s="129" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11" s="167" customFormat="1" ht="17.25" customHeight="1" spans="2:5">
-      <c r="B11" s="185"/>
-      <c r="D11" s="175"/>
-      <c r="E11" s="198" t="s">
+    <row r="11" spans="2:5" s="105" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="122"/>
+      <c r="D11" s="112"/>
+      <c r="E11" s="130" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12" s="167" customFormat="1" ht="15.75" customHeight="1" spans="2:5">
-      <c r="B12" s="185"/>
-      <c r="C12" s="186" t="s">
+    <row r="12" spans="2:5" s="105" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B12" s="122"/>
+      <c r="C12" s="142" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="175"/>
-      <c r="E12" s="198" t="s">
+      <c r="D12" s="112"/>
+      <c r="E12" s="130" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" s="167" customFormat="1" ht="15.75" customHeight="1" spans="2:5">
-      <c r="B13" s="185"/>
-      <c r="C13" s="186"/>
-      <c r="D13" s="175"/>
-      <c r="E13" s="198" t="s">
+    <row r="13" spans="2:5" s="105" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="122"/>
+      <c r="C13" s="142"/>
+      <c r="D13" s="112"/>
+      <c r="E13" s="130" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" s="167" customFormat="1" ht="15.75" customHeight="1" spans="2:5">
-      <c r="B14" s="185"/>
-      <c r="C14" s="184"/>
-      <c r="D14" s="175"/>
-      <c r="E14" s="198" t="s">
+    <row r="14" spans="2:5" s="105" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B14" s="122"/>
+      <c r="C14" s="121"/>
+      <c r="D14" s="112"/>
+      <c r="E14" s="130" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" s="167" customFormat="1" ht="16.5" customHeight="1" spans="2:5">
-      <c r="B15" s="185"/>
-      <c r="C15" s="187"/>
-      <c r="D15" s="175"/>
-      <c r="E15" s="198" t="s">
+    <row r="15" spans="2:5" s="105" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B15" s="122"/>
+      <c r="C15" s="123"/>
+      <c r="D15" s="112"/>
+      <c r="E15" s="130" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="16" s="167" customFormat="1" ht="15" customHeight="1" spans="2:5">
-      <c r="B16" s="185"/>
-      <c r="C16" s="187"/>
-      <c r="D16" s="175"/>
-      <c r="E16" s="198" t="s">
+    <row r="16" spans="2:5" s="105" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B16" s="122"/>
+      <c r="C16" s="123"/>
+      <c r="D16" s="112"/>
+      <c r="E16" s="130" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="17" s="167" customFormat="1" ht="24.8" spans="2:5">
-      <c r="B17" s="185"/>
-      <c r="C17" s="184"/>
-      <c r="D17" s="175"/>
-      <c r="E17" s="197" t="s">
+    <row r="17" spans="2:5" s="105" customFormat="1" ht="26" x14ac:dyDescent="0.15">
+      <c r="B17" s="122"/>
+      <c r="C17" s="121"/>
+      <c r="D17" s="112"/>
+      <c r="E17" s="129" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="18" s="167" customFormat="1" ht="24.8" spans="2:5">
-      <c r="B18" s="185"/>
-      <c r="C18" s="188">
+    <row r="18" spans="2:5" s="105" customFormat="1" ht="26" x14ac:dyDescent="0.15">
+      <c r="B18" s="122"/>
+      <c r="C18" s="124">
         <f ca="1">TODAY()</f>
-        <v>42342</v>
-      </c>
-      <c r="D18" s="175"/>
-      <c r="E18" s="197" t="s">
+        <v>42348</v>
+      </c>
+      <c r="D18" s="112"/>
+      <c r="E18" s="129" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="19" s="168" customFormat="1" ht="19.95" spans="2:5">
-      <c r="B19" s="189"/>
-      <c r="C19" s="190"/>
-      <c r="D19" s="191"/>
-      <c r="E19" s="199"/>
-    </row>
-    <row r="20" s="168" customFormat="1" ht="19.2" spans="3:5">
-      <c r="C20" s="192"/>
-      <c r="D20" s="192"/>
-      <c r="E20" s="200"/>
-    </row>
-    <row r="21" s="169" customFormat="1" ht="19.2" spans="2:5">
-      <c r="B21" s="192"/>
-      <c r="C21" s="192"/>
-      <c r="D21" s="192"/>
-      <c r="E21" s="201"/>
+    <row r="19" spans="2:5" s="106" customFormat="1" ht="21" x14ac:dyDescent="0.15">
+      <c r="B19" s="139"/>
+      <c r="C19" s="140"/>
+      <c r="D19" s="125"/>
+      <c r="E19" s="131"/>
+    </row>
+    <row r="20" spans="2:5" s="106" customFormat="1" ht="21" x14ac:dyDescent="0.15">
+      <c r="C20" s="126"/>
+      <c r="D20" s="126"/>
+      <c r="E20" s="132"/>
+    </row>
+    <row r="21" spans="2:5" s="107" customFormat="1" ht="21" x14ac:dyDescent="0.15">
+      <c r="B21" s="141"/>
+      <c r="C21" s="141"/>
+      <c r="D21" s="126"/>
+      <c r="E21" s="133"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -6291,88 +5902,87 @@
     <mergeCell ref="C12:C13"/>
     <mergeCell ref="D2:E3"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="0"/>
   </sheetPr>
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="5" outlineLevelCol="3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.85714285714286" style="71" customWidth="1"/>
-    <col min="2" max="2" width="12.8571428571429" style="71" customWidth="1"/>
-    <col min="3" max="3" width="48.2857142857143" style="71" customWidth="1"/>
-    <col min="4" max="4" width="30.2857142857143" style="71" customWidth="1"/>
-    <col min="5" max="16384" width="9.14285714285714" style="71"/>
+    <col min="1" max="1" width="8.83203125" style="55" customWidth="1"/>
+    <col min="2" max="2" width="12.83203125" style="55" customWidth="1"/>
+    <col min="3" max="3" width="48.33203125" style="55" customWidth="1"/>
+    <col min="4" max="4" width="30.33203125" style="55" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="55"/>
   </cols>
   <sheetData>
-    <row r="1" ht="23.25" customHeight="1" spans="1:4">
-      <c r="A1" s="153" t="s">
+    <row r="1" spans="1:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="147" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="153"/>
-      <c r="C1" s="153"/>
-      <c r="D1" s="153"/>
-    </row>
-    <row r="2" s="152" customFormat="1" ht="23.25" customHeight="1" spans="1:4">
-      <c r="A2" s="154" t="s">
+      <c r="B1" s="147"/>
+      <c r="C1" s="147"/>
+      <c r="D1" s="147"/>
+    </row>
+    <row r="2" spans="1:4" s="99" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="148" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="155"/>
-      <c r="C2" s="156" t="s">
+      <c r="B2" s="149"/>
+      <c r="C2" s="100" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="156" t="s">
+      <c r="D2" s="100" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" s="152" customFormat="1" ht="24" customHeight="1" spans="1:4">
-      <c r="A3" s="157" t="s">
+    <row r="3" spans="1:4" s="99" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="150" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="158" t="s">
+      <c r="B3" s="101" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="159" t="s">
+      <c r="C3" s="102" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="160" t="s">
+      <c r="D3" s="153" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="4" s="152" customFormat="1" ht="24" customHeight="1" spans="1:4">
-      <c r="A4" s="161"/>
-      <c r="B4" s="158" t="s">
+    <row r="4" spans="1:4" s="99" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="151"/>
+      <c r="B4" s="101" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="159" t="s">
+      <c r="C4" s="102" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="162"/>
-    </row>
-    <row r="5" s="152" customFormat="1" ht="24" customHeight="1" spans="1:4">
-      <c r="A5" s="163"/>
-      <c r="B5" s="158" t="s">
+      <c r="D4" s="154"/>
+    </row>
+    <row r="5" spans="1:4" s="99" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="152"/>
+      <c r="B5" s="101" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="159" t="s">
+      <c r="C5" s="102" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="164"/>
-    </row>
-    <row r="6" ht="21.95" customHeight="1"/>
+      <c r="D5" s="155"/>
+    </row>
+    <row r="6" spans="1:4" ht="22" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:D1"/>
@@ -6380,586 +5990,584 @@
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="D3:D5"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.8"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.57142857142857" style="89" customWidth="1"/>
-    <col min="2" max="2" width="5.14285714285714" style="89" customWidth="1"/>
-    <col min="3" max="3" width="80.7142857142857" style="90" customWidth="1"/>
-    <col min="4" max="4" width="2" style="91" customWidth="1"/>
-    <col min="5" max="5" width="8.28571428571429" style="91" customWidth="1"/>
-    <col min="6" max="6" width="9.71428571428571" style="91" customWidth="1"/>
-    <col min="7" max="7" width="8.28571428571429" style="91" customWidth="1"/>
-    <col min="8" max="8" width="12.4285714285714" style="91" customWidth="1"/>
-    <col min="9" max="9" width="10.8571428571429" style="91" customWidth="1"/>
-    <col min="10" max="10" width="1.71428571428571" style="91" customWidth="1"/>
-    <col min="11" max="16384" width="9.14285714285714" style="91"/>
+    <col min="1" max="1" width="9.5" style="67" customWidth="1"/>
+    <col min="2" max="2" width="5.1640625" style="67" customWidth="1"/>
+    <col min="3" max="3" width="80.6640625" style="68" customWidth="1"/>
+    <col min="4" max="4" width="2" style="69" customWidth="1"/>
+    <col min="5" max="5" width="8.33203125" style="69" customWidth="1"/>
+    <col min="6" max="6" width="9.6640625" style="69" customWidth="1"/>
+    <col min="7" max="7" width="8.33203125" style="69" customWidth="1"/>
+    <col min="8" max="8" width="12.5" style="69" customWidth="1"/>
+    <col min="9" max="9" width="10.83203125" style="69" customWidth="1"/>
+    <col min="10" max="10" width="1.6640625" style="69" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="69"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" s="92" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" s="182" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="92"/>
-      <c r="C1" s="92"/>
-      <c r="E1" s="107" t="s">
+      <c r="B1" s="182"/>
+      <c r="C1" s="182"/>
+      <c r="E1" s="183" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="107"/>
-      <c r="G1" s="107"/>
-      <c r="H1" s="107"/>
-      <c r="I1" s="107"/>
-    </row>
-    <row r="2" ht="18" customHeight="1" spans="1:10">
-      <c r="A2" s="93" t="s">
+      <c r="F1" s="183"/>
+      <c r="G1" s="183"/>
+      <c r="H1" s="183"/>
+      <c r="I1" s="183"/>
+    </row>
+    <row r="2" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="70" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="94" t="s">
+      <c r="B2" s="71" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="95" t="s">
+      <c r="C2" s="72" t="s">
         <v>31</v>
       </c>
-      <c r="E2" s="108" t="s">
+      <c r="E2" s="81" t="s">
         <v>32</v>
       </c>
-      <c r="F2" s="109" t="s">
+      <c r="F2" s="82" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="109" t="s">
+      <c r="G2" s="82" t="s">
         <v>33</v>
       </c>
-      <c r="H2" s="109" t="s">
+      <c r="H2" s="82" t="s">
         <v>34</v>
       </c>
-      <c r="I2" s="137" t="s">
+      <c r="I2" s="92" t="s">
         <v>35</v>
       </c>
-      <c r="J2" s="138"/>
-    </row>
-    <row r="3" ht="17.25" customHeight="1" spans="1:9">
-      <c r="A3" s="96" t="s">
+      <c r="J2" s="93"/>
+    </row>
+    <row r="3" spans="1:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="180" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="97" t="s">
+      <c r="B3" s="73" t="s">
         <v>37</v>
       </c>
-      <c r="C3" s="98" t="s">
+      <c r="C3" s="74" t="s">
         <v>38</v>
       </c>
-      <c r="E3" s="110" t="s">
+      <c r="E3" s="161" t="s">
         <v>39</v>
       </c>
-      <c r="F3" s="111" t="s">
+      <c r="F3" s="83" t="s">
         <v>40</v>
       </c>
-      <c r="G3" s="112" t="s">
+      <c r="G3" s="84" t="s">
         <v>41</v>
       </c>
-      <c r="H3" s="112" t="s">
+      <c r="H3" s="84" t="s">
         <v>42</v>
       </c>
-      <c r="I3" s="139" t="s">
+      <c r="I3" s="94" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1" spans="1:9">
-      <c r="A4" s="96"/>
-      <c r="B4" s="97" t="s">
+    <row r="4" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="180"/>
+      <c r="B4" s="159" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="99" t="s">
+      <c r="C4" s="75" t="s">
         <v>44</v>
       </c>
-      <c r="E4" s="113"/>
-      <c r="F4" s="114" t="s">
+      <c r="E4" s="162"/>
+      <c r="F4" s="85" t="s">
         <v>45</v>
       </c>
-      <c r="G4" s="114" t="s">
+      <c r="G4" s="85" t="s">
         <v>46</v>
       </c>
-      <c r="H4" s="114" t="s">
+      <c r="H4" s="85" t="s">
         <v>42</v>
       </c>
-      <c r="I4" s="140" t="s">
+      <c r="I4" s="95" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="5" ht="15" customHeight="1" spans="1:9">
-      <c r="A5" s="96"/>
-      <c r="B5" s="97"/>
-      <c r="C5" s="100" t="s">
+    <row r="5" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="180"/>
+      <c r="B5" s="159"/>
+      <c r="C5" s="76" t="s">
         <v>47</v>
       </c>
-      <c r="E5" s="115" t="s">
+      <c r="E5" s="163" t="s">
         <v>48</v>
       </c>
-      <c r="F5" s="116" t="s">
+      <c r="F5" s="188" t="s">
         <v>49</v>
       </c>
-      <c r="G5" s="116" t="s">
+      <c r="G5" s="188" t="s">
         <v>50</v>
       </c>
-      <c r="H5" s="116" t="s">
+      <c r="H5" s="86" t="s">
         <v>51</v>
       </c>
-      <c r="I5" s="141" t="s">
+      <c r="I5" s="96" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="6" ht="15" customHeight="1" spans="1:9">
-      <c r="A6" s="96"/>
-      <c r="B6" s="97"/>
-      <c r="C6" s="101" t="s">
+    <row r="6" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="180"/>
+      <c r="B6" s="159"/>
+      <c r="C6" s="77" t="s">
         <v>53</v>
       </c>
-      <c r="E6" s="115"/>
-      <c r="F6" s="116"/>
-      <c r="G6" s="116"/>
-      <c r="H6" s="117" t="s">
+      <c r="E6" s="163"/>
+      <c r="F6" s="188"/>
+      <c r="G6" s="188"/>
+      <c r="H6" s="87" t="s">
         <v>54</v>
       </c>
-      <c r="I6" s="142" t="s">
+      <c r="I6" s="97" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1" spans="1:9">
-      <c r="A7" s="96"/>
-      <c r="B7" s="97" t="s">
+    <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="180"/>
+      <c r="B7" s="159" t="s">
         <v>56</v>
       </c>
-      <c r="C7" s="99" t="s">
+      <c r="C7" s="75" t="s">
         <v>57</v>
       </c>
-      <c r="E7" s="115"/>
-      <c r="F7" s="116"/>
-      <c r="G7" s="116"/>
-      <c r="H7" s="116" t="s">
+      <c r="E7" s="163"/>
+      <c r="F7" s="188"/>
+      <c r="G7" s="188"/>
+      <c r="H7" s="86" t="s">
         <v>58</v>
       </c>
-      <c r="I7" s="141" t="s">
+      <c r="I7" s="96" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="8" ht="24" customHeight="1" spans="1:9">
-      <c r="A8" s="96"/>
-      <c r="B8" s="97"/>
-      <c r="C8" s="100" t="s">
+    <row r="8" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="180"/>
+      <c r="B8" s="159"/>
+      <c r="C8" s="76" t="s">
         <v>60</v>
       </c>
-      <c r="E8" s="118" t="s">
+      <c r="E8" s="164" t="s">
         <v>61</v>
       </c>
-      <c r="F8" s="112" t="s">
+      <c r="F8" s="189" t="s">
         <v>61</v>
       </c>
-      <c r="G8" s="112" t="s">
+      <c r="G8" s="189" t="s">
         <v>62</v>
       </c>
-      <c r="H8" s="112" t="s">
+      <c r="H8" s="84" t="s">
         <v>51</v>
       </c>
-      <c r="I8" s="139" t="s">
+      <c r="I8" s="94" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="9" ht="15" customHeight="1" spans="1:9">
-      <c r="A9" s="96"/>
-      <c r="B9" s="97"/>
-      <c r="C9" s="101" t="s">
+    <row r="9" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="180"/>
+      <c r="B9" s="159"/>
+      <c r="C9" s="77" t="s">
         <v>64</v>
       </c>
-      <c r="E9" s="119"/>
-      <c r="F9" s="116"/>
-      <c r="G9" s="116"/>
-      <c r="H9" s="117" t="s">
+      <c r="E9" s="165"/>
+      <c r="F9" s="188"/>
+      <c r="G9" s="188"/>
+      <c r="H9" s="87" t="s">
         <v>54</v>
       </c>
-      <c r="I9" s="142" t="s">
+      <c r="I9" s="97" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="10" ht="15" customHeight="1" spans="1:9">
-      <c r="A10" s="96" t="s">
+    <row r="10" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="180" t="s">
         <v>66</v>
       </c>
-      <c r="B10" s="97" t="s">
+      <c r="B10" s="159" t="s">
         <v>67</v>
       </c>
-      <c r="C10" s="99" t="s">
+      <c r="C10" s="75" t="s">
         <v>68</v>
       </c>
-      <c r="E10" s="120"/>
-      <c r="F10" s="114"/>
-      <c r="G10" s="114"/>
-      <c r="H10" s="114" t="s">
+      <c r="E10" s="166"/>
+      <c r="F10" s="190"/>
+      <c r="G10" s="190"/>
+      <c r="H10" s="85" t="s">
         <v>58</v>
       </c>
-      <c r="I10" s="140" t="s">
+      <c r="I10" s="95" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="11" ht="23" spans="1:9">
-      <c r="A11" s="96"/>
-      <c r="B11" s="97"/>
-      <c r="C11" s="100" t="s">
+    <row r="11" spans="1:10" ht="22" x14ac:dyDescent="0.2">
+      <c r="A11" s="180"/>
+      <c r="B11" s="159"/>
+      <c r="C11" s="76" t="s">
         <v>70</v>
       </c>
-      <c r="E11" s="118" t="s">
+      <c r="E11" s="164" t="s">
         <v>71</v>
       </c>
-      <c r="F11" s="112" t="s">
+      <c r="F11" s="189" t="s">
         <v>71</v>
       </c>
-      <c r="G11" s="112" t="s">
+      <c r="G11" s="189" t="s">
         <v>72</v>
       </c>
-      <c r="H11" s="112" t="s">
+      <c r="H11" s="84" t="s">
         <v>51</v>
       </c>
-      <c r="I11" s="139" t="s">
+      <c r="I11" s="94" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="12" ht="15" customHeight="1" spans="1:9">
-      <c r="A12" s="96"/>
-      <c r="B12" s="97"/>
-      <c r="C12" s="102" t="s">
+    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="180"/>
+      <c r="B12" s="159"/>
+      <c r="C12" s="78" t="s">
         <v>74</v>
       </c>
-      <c r="E12" s="119"/>
-      <c r="F12" s="116"/>
-      <c r="G12" s="116"/>
-      <c r="H12" s="117" t="s">
+      <c r="E12" s="165"/>
+      <c r="F12" s="188"/>
+      <c r="G12" s="188"/>
+      <c r="H12" s="87" t="s">
         <v>54</v>
       </c>
-      <c r="I12" s="142" t="s">
+      <c r="I12" s="97" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="13" ht="15" customHeight="1" spans="1:9">
-      <c r="A13" s="96" t="s">
+    <row r="13" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="180" t="s">
         <v>76</v>
       </c>
-      <c r="B13" s="97" t="s">
+      <c r="B13" s="159" t="s">
         <v>77</v>
       </c>
-      <c r="C13" s="99" t="s">
+      <c r="C13" s="75" t="s">
         <v>78</v>
       </c>
-      <c r="E13" s="118" t="s">
+      <c r="E13" s="164" t="s">
         <v>79</v>
       </c>
-      <c r="F13" s="112" t="s">
+      <c r="F13" s="189" t="s">
         <v>76</v>
       </c>
-      <c r="G13" s="112" t="s">
+      <c r="G13" s="189" t="s">
         <v>77</v>
       </c>
-      <c r="H13" s="112" t="s">
+      <c r="H13" s="84" t="s">
         <v>51</v>
       </c>
-      <c r="I13" s="139" t="s">
+      <c r="I13" s="94" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="14" ht="23" spans="1:9">
-      <c r="A14" s="96"/>
-      <c r="B14" s="97"/>
-      <c r="C14" s="100" t="s">
+    <row r="14" spans="1:10" ht="22" x14ac:dyDescent="0.2">
+      <c r="A14" s="180"/>
+      <c r="B14" s="159"/>
+      <c r="C14" s="76" t="s">
         <v>81</v>
       </c>
-      <c r="E14" s="119"/>
-      <c r="F14" s="116"/>
-      <c r="G14" s="116"/>
-      <c r="H14" s="117" t="s">
+      <c r="E14" s="165"/>
+      <c r="F14" s="188"/>
+      <c r="G14" s="188"/>
+      <c r="H14" s="87" t="s">
         <v>54</v>
       </c>
-      <c r="I14" s="142" t="s">
+      <c r="I14" s="97" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="15" ht="21" customHeight="1" spans="1:9">
-      <c r="A15" s="96"/>
-      <c r="B15" s="97"/>
-      <c r="C15" s="102" t="s">
+    <row r="15" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="180"/>
+      <c r="B15" s="159"/>
+      <c r="C15" s="78" t="s">
         <v>83</v>
       </c>
-      <c r="E15" s="118" t="s">
+      <c r="E15" s="88" t="s">
         <v>84</v>
       </c>
-      <c r="F15" s="112" t="s">
+      <c r="F15" s="84" t="s">
         <v>66</v>
       </c>
-      <c r="G15" s="112" t="s">
+      <c r="G15" s="84" t="s">
         <v>67</v>
       </c>
-      <c r="H15" s="112" t="s">
+      <c r="H15" s="84" t="s">
         <v>85</v>
       </c>
-      <c r="I15" s="139" t="s">
+      <c r="I15" s="94" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="96" t="s">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" s="180" t="s">
         <v>71</v>
       </c>
-      <c r="B16" s="97" t="s">
+      <c r="B16" s="159" t="s">
         <v>72</v>
       </c>
-      <c r="C16" s="99" t="s">
+      <c r="C16" s="75" t="s">
         <v>86</v>
       </c>
-      <c r="E16" s="118" t="s">
+      <c r="E16" s="164" t="s">
         <v>87</v>
       </c>
-      <c r="F16" s="112" t="s">
+      <c r="F16" s="189" t="s">
         <v>36</v>
       </c>
-      <c r="G16" s="112" t="s">
+      <c r="G16" s="84" t="s">
         <v>56</v>
       </c>
-      <c r="H16" s="111" t="s">
+      <c r="H16" s="192" t="s">
         <v>88</v>
       </c>
-      <c r="I16" s="143" t="s">
+      <c r="I16" s="156" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
-      <c r="A17" s="96"/>
-      <c r="B17" s="97"/>
-      <c r="C17" s="100" t="s">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" s="180"/>
+      <c r="B17" s="159"/>
+      <c r="C17" s="76" t="s">
         <v>89</v>
       </c>
-      <c r="E17" s="119"/>
-      <c r="F17" s="116"/>
-      <c r="G17" s="116" t="s">
+      <c r="E17" s="165"/>
+      <c r="F17" s="188"/>
+      <c r="G17" s="86" t="s">
         <v>43</v>
       </c>
-      <c r="H17" s="121"/>
-      <c r="I17" s="144" t="s">
+      <c r="H17" s="193"/>
+      <c r="I17" s="157" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="18" ht="23.25" customHeight="1" spans="1:9">
-      <c r="A18" s="96"/>
-      <c r="B18" s="97"/>
-      <c r="C18" s="100" t="s">
+    <row r="18" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="180"/>
+      <c r="B18" s="159"/>
+      <c r="C18" s="76" t="s">
         <v>90</v>
       </c>
-      <c r="E18" s="122"/>
-      <c r="F18" s="123"/>
-      <c r="G18" s="123" t="s">
+      <c r="E18" s="167"/>
+      <c r="F18" s="191"/>
+      <c r="G18" s="89" t="s">
         <v>37</v>
       </c>
-      <c r="H18" s="124"/>
-      <c r="I18" s="145" t="s">
+      <c r="H18" s="194"/>
+      <c r="I18" s="158" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="19" ht="15" customHeight="1" spans="1:9">
-      <c r="A19" s="96"/>
-      <c r="B19" s="97"/>
-      <c r="C19" s="101" t="s">
+    <row r="19" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="180"/>
+      <c r="B19" s="159"/>
+      <c r="C19" s="77" t="s">
         <v>91</v>
       </c>
-      <c r="E19" s="125"/>
-      <c r="F19" s="125"/>
-      <c r="G19" s="125"/>
-      <c r="H19" s="125"/>
-      <c r="I19" s="125"/>
-    </row>
-    <row r="20" ht="15" customHeight="1" spans="1:9">
-      <c r="A20" s="96" t="s">
+      <c r="E19" s="90"/>
+      <c r="F19" s="90"/>
+      <c r="G19" s="90"/>
+      <c r="H19" s="90"/>
+      <c r="I19" s="90"/>
+    </row>
+    <row r="20" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="180" t="s">
         <v>61</v>
       </c>
-      <c r="B20" s="97" t="s">
+      <c r="B20" s="159" t="s">
         <v>62</v>
       </c>
-      <c r="C20" s="99" t="s">
+      <c r="C20" s="75" t="s">
         <v>92</v>
       </c>
-      <c r="E20" s="126"/>
-      <c r="F20" s="126"/>
-      <c r="G20" s="126"/>
-      <c r="H20" s="126"/>
-      <c r="I20" s="126"/>
-    </row>
-    <row r="21" ht="21.75" customHeight="1" spans="1:9">
-      <c r="A21" s="96"/>
-      <c r="B21" s="97"/>
-      <c r="C21" s="100" t="s">
+      <c r="E20" s="91"/>
+      <c r="F20" s="91"/>
+      <c r="G20" s="91"/>
+      <c r="H20" s="91"/>
+      <c r="I20" s="91"/>
+    </row>
+    <row r="21" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="180"/>
+      <c r="B21" s="159"/>
+      <c r="C21" s="76" t="s">
         <v>93</v>
       </c>
-      <c r="E21" s="127" t="s">
+      <c r="E21" s="168" t="s">
         <v>94</v>
       </c>
-      <c r="F21" s="128" t="s">
+      <c r="F21" s="184" t="s">
         <v>95</v>
       </c>
-      <c r="G21" s="128"/>
-      <c r="H21" s="128"/>
-      <c r="I21" s="146"/>
-    </row>
-    <row r="22" ht="15" customHeight="1" spans="1:9">
-      <c r="A22" s="96"/>
-      <c r="B22" s="97"/>
-      <c r="C22" s="100" t="s">
+      <c r="G21" s="184"/>
+      <c r="H21" s="184"/>
+      <c r="I21" s="185"/>
+    </row>
+    <row r="22" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="180"/>
+      <c r="B22" s="159"/>
+      <c r="C22" s="76" t="s">
         <v>96</v>
       </c>
-      <c r="E22" s="129"/>
-      <c r="F22" s="130" t="s">
+      <c r="E22" s="169"/>
+      <c r="F22" s="186" t="s">
         <v>97</v>
       </c>
-      <c r="G22" s="130"/>
-      <c r="H22" s="130"/>
-      <c r="I22" s="147"/>
-    </row>
-    <row r="23" ht="15" customHeight="1" spans="1:9">
-      <c r="A23" s="96"/>
-      <c r="B23" s="97"/>
-      <c r="C23" s="103" t="s">
+      <c r="G22" s="186"/>
+      <c r="H22" s="186"/>
+      <c r="I22" s="187"/>
+    </row>
+    <row r="23" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="180"/>
+      <c r="B23" s="159"/>
+      <c r="C23" s="79" t="s">
         <v>98</v>
       </c>
-      <c r="E23" s="131" t="s">
+      <c r="E23" s="170" t="s">
         <v>99</v>
       </c>
-      <c r="F23" s="132" t="s">
+      <c r="F23" s="172" t="s">
         <v>100</v>
       </c>
-      <c r="G23" s="132"/>
-      <c r="H23" s="132"/>
-      <c r="I23" s="148"/>
-    </row>
-    <row r="24" ht="15" customHeight="1" spans="1:9">
-      <c r="A24" s="104" t="s">
+      <c r="G23" s="172"/>
+      <c r="H23" s="172"/>
+      <c r="I23" s="173"/>
+    </row>
+    <row r="24" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="181" t="s">
         <v>49</v>
       </c>
-      <c r="B24" s="97" t="s">
+      <c r="B24" s="159" t="s">
         <v>50</v>
       </c>
-      <c r="C24" s="99" t="s">
+      <c r="C24" s="75" t="s">
         <v>101</v>
       </c>
-      <c r="E24" s="131"/>
-      <c r="F24" s="132" t="s">
+      <c r="E24" s="170"/>
+      <c r="F24" s="172" t="s">
         <v>102</v>
       </c>
-      <c r="G24" s="132"/>
-      <c r="H24" s="132"/>
-      <c r="I24" s="148"/>
-    </row>
-    <row r="25" ht="15" customHeight="1" spans="1:9">
-      <c r="A25" s="104"/>
-      <c r="B25" s="97"/>
-      <c r="C25" s="100" t="s">
+      <c r="G24" s="172"/>
+      <c r="H24" s="172"/>
+      <c r="I24" s="173"/>
+    </row>
+    <row r="25" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="181"/>
+      <c r="B25" s="159"/>
+      <c r="C25" s="76" t="s">
         <v>103</v>
       </c>
-      <c r="E25" s="129" t="s">
+      <c r="E25" s="169" t="s">
         <v>104</v>
       </c>
-      <c r="F25" s="133" t="s">
+      <c r="F25" s="174" t="s">
         <v>105</v>
       </c>
-      <c r="G25" s="134"/>
-      <c r="H25" s="134"/>
-      <c r="I25" s="149"/>
-    </row>
-    <row r="26" ht="15" customHeight="1" spans="1:10">
-      <c r="A26" s="104"/>
-      <c r="B26" s="97"/>
-      <c r="C26" s="100" t="s">
+      <c r="G25" s="175"/>
+      <c r="H25" s="175"/>
+      <c r="I25" s="176"/>
+    </row>
+    <row r="26" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="181"/>
+      <c r="B26" s="159"/>
+      <c r="C26" s="76" t="s">
         <v>106</v>
       </c>
-      <c r="E26" s="135"/>
-      <c r="F26" s="136" t="s">
+      <c r="E26" s="171"/>
+      <c r="F26" s="177" t="s">
         <v>107</v>
       </c>
-      <c r="G26" s="136"/>
-      <c r="H26" s="136"/>
-      <c r="I26" s="150"/>
-      <c r="J26" s="151"/>
-    </row>
-    <row r="27" ht="15" customHeight="1" spans="1:10">
-      <c r="A27" s="104"/>
-      <c r="B27" s="97"/>
-      <c r="C27" s="102" t="s">
+      <c r="G26" s="177"/>
+      <c r="H26" s="177"/>
+      <c r="I26" s="178"/>
+      <c r="J26" s="98"/>
+    </row>
+    <row r="27" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="181"/>
+      <c r="B27" s="159"/>
+      <c r="C27" s="78" t="s">
         <v>108</v>
       </c>
-      <c r="E27" s="106"/>
-      <c r="F27" s="106"/>
-      <c r="G27" s="106"/>
-      <c r="H27" s="106"/>
-      <c r="I27" s="106"/>
-      <c r="J27" s="151"/>
-    </row>
-    <row r="28" ht="15" customHeight="1" spans="1:10">
-      <c r="A28" s="104" t="s">
+      <c r="E27" s="80"/>
+      <c r="F27" s="80"/>
+      <c r="G27" s="80"/>
+      <c r="H27" s="80"/>
+      <c r="I27" s="80"/>
+      <c r="J27" s="98"/>
+    </row>
+    <row r="28" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="181" t="s">
         <v>45</v>
       </c>
-      <c r="B28" s="105" t="s">
+      <c r="B28" s="160" t="s">
         <v>46</v>
       </c>
-      <c r="C28" s="99" t="s">
+      <c r="C28" s="75" t="s">
         <v>109</v>
       </c>
-      <c r="J28" s="151"/>
-    </row>
-    <row r="29" ht="15" customHeight="1" spans="1:10">
-      <c r="A29" s="104"/>
-      <c r="B29" s="105"/>
-      <c r="C29" s="100" t="s">
+      <c r="J28" s="98"/>
+    </row>
+    <row r="29" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="181"/>
+      <c r="B29" s="160"/>
+      <c r="C29" s="76" t="s">
         <v>110</v>
       </c>
-      <c r="J29" s="151"/>
-    </row>
-    <row r="30" ht="15" customHeight="1" spans="1:3">
-      <c r="A30" s="104"/>
-      <c r="B30" s="105"/>
-      <c r="C30" s="100" t="s">
+      <c r="J29" s="98"/>
+    </row>
+    <row r="30" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="181"/>
+      <c r="B30" s="160"/>
+      <c r="C30" s="76" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="31" ht="15" customHeight="1" spans="1:10">
-      <c r="A31" s="104"/>
-      <c r="B31" s="105"/>
-      <c r="C31" s="101" t="s">
+    <row r="31" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="181"/>
+      <c r="B31" s="160"/>
+      <c r="C31" s="77" t="s">
         <v>112</v>
       </c>
-      <c r="J31" s="151"/>
-    </row>
-    <row r="32" ht="45" customHeight="1" spans="1:9">
-      <c r="A32" s="106" t="s">
+      <c r="J31" s="98"/>
+    </row>
+    <row r="32" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="179" t="s">
         <v>113</v>
       </c>
-      <c r="B32" s="106"/>
-      <c r="C32" s="106"/>
-      <c r="D32" s="106"/>
-      <c r="E32" s="106"/>
-      <c r="F32" s="106"/>
-      <c r="G32" s="106"/>
-      <c r="H32" s="106"/>
-      <c r="I32" s="106"/>
-    </row>
-    <row r="33" ht="16.5" customHeight="1"/>
-    <row r="34" ht="17.25" customHeight="1"/>
-    <row r="35" ht="48.75" customHeight="1"/>
+      <c r="B32" s="179"/>
+      <c r="C32" s="179"/>
+      <c r="D32" s="179"/>
+      <c r="E32" s="179"/>
+      <c r="F32" s="179"/>
+      <c r="G32" s="179"/>
+      <c r="H32" s="179"/>
+      <c r="I32" s="179"/>
+    </row>
+    <row r="33" ht="16.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="34" ht="17.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="35" ht="48.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="44">
     <mergeCell ref="A1:C1"/>
@@ -6967,9 +6575,17 @@
     <mergeCell ref="F21:I21"/>
     <mergeCell ref="F22:I22"/>
     <mergeCell ref="F23:I23"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="F25:I25"/>
-    <mergeCell ref="F26:I26"/>
+    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="F5:F7"/>
+    <mergeCell ref="F8:F10"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="F16:F18"/>
+    <mergeCell ref="G5:G7"/>
+    <mergeCell ref="G8:G10"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="H16:H18"/>
     <mergeCell ref="A32:I32"/>
     <mergeCell ref="A3:A9"/>
     <mergeCell ref="A10:A12"/>
@@ -6983,7 +6599,7 @@
     <mergeCell ref="B10:B12"/>
     <mergeCell ref="B13:B15"/>
     <mergeCell ref="B16:B19"/>
-    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="I16:I18"/>
     <mergeCell ref="B24:B27"/>
     <mergeCell ref="B28:B31"/>
     <mergeCell ref="E3:E4"/>
@@ -6995,243 +6611,233 @@
     <mergeCell ref="E21:E22"/>
     <mergeCell ref="E23:E24"/>
     <mergeCell ref="E25:E26"/>
-    <mergeCell ref="F5:F7"/>
-    <mergeCell ref="F8:F10"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="F16:F18"/>
-    <mergeCell ref="G5:G7"/>
-    <mergeCell ref="G8:G10"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="H16:H18"/>
-    <mergeCell ref="I16:I18"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="F25:I25"/>
+    <mergeCell ref="F26:I26"/>
   </mergeCells>
-  <pageMargins left="0.313888888888889" right="0" top="0.15625" bottom="0" header="0.196527777777778" footer="0.118055555555556"/>
+  <pageMargins left="0.31388888888888899" right="0" top="0.15625" bottom="0" header="0.196527777777778" footer="0.118055555555556"/>
   <pageSetup paperSize="9" orientation="landscape"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="9"/>
   </sheetPr>
   <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
-      <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="13.1428571428571" style="72" customWidth="1"/>
-    <col min="2" max="2" width="14.1428571428571" style="72" customWidth="1"/>
-    <col min="3" max="3" width="21.5714285714286" style="72" customWidth="1"/>
-    <col min="4" max="4" width="15.5714285714286" style="72" customWidth="1"/>
-    <col min="5" max="5" width="11.4285714285714" style="72" customWidth="1"/>
-    <col min="6" max="16384" width="9.14285714285714" style="72"/>
+    <col min="1" max="1" width="13.1640625" style="56" customWidth="1"/>
+    <col min="2" max="2" width="14.1640625" style="56" customWidth="1"/>
+    <col min="3" max="3" width="21.5" style="56" customWidth="1"/>
+    <col min="4" max="4" width="15.5" style="56" customWidth="1"/>
+    <col min="5" max="5" width="11.5" style="56" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="56"/>
   </cols>
   <sheetData>
-    <row r="1" ht="23.25" customHeight="1" spans="1:5">
-      <c r="A1" s="73" t="s">
+    <row r="1" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="195" t="s">
         <v>114</v>
       </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-    </row>
-    <row r="2" s="71" customFormat="1" ht="14" spans="1:5">
-      <c r="A2" s="74" t="s">
+      <c r="B1" s="195"/>
+      <c r="C1" s="195"/>
+      <c r="D1" s="195"/>
+      <c r="E1" s="195"/>
+    </row>
+    <row r="2" spans="1:11" s="55" customFormat="1" ht="16" x14ac:dyDescent="0.25">
+      <c r="A2" s="199" t="s">
         <v>115</v>
       </c>
-      <c r="B2" s="74" t="s">
+      <c r="B2" s="199" t="s">
         <v>116</v>
       </c>
-      <c r="C2" s="75" t="s">
+      <c r="C2" s="196" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="76"/>
-      <c r="E2" s="86"/>
-    </row>
-    <row r="3" s="71" customFormat="1" ht="21" customHeight="1" spans="1:5">
-      <c r="A3" s="74"/>
-      <c r="B3" s="74"/>
-      <c r="C3" s="77" t="s">
+      <c r="D2" s="197"/>
+      <c r="E2" s="198"/>
+    </row>
+    <row r="3" spans="1:11" s="55" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="199"/>
+      <c r="B3" s="199"/>
+      <c r="C3" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="77" t="s">
+      <c r="D3" s="57" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="77" t="s">
+      <c r="E3" s="57" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="4" s="71" customFormat="1" ht="43.5" customHeight="1" spans="1:5">
-      <c r="A4" s="74"/>
-      <c r="B4" s="74"/>
-      <c r="C4" s="78" t="s">
+    <row r="4" spans="1:11" s="55" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="199"/>
+      <c r="B4" s="199"/>
+      <c r="C4" s="58" t="s">
         <v>117</v>
       </c>
-      <c r="D4" s="79" t="s">
+      <c r="D4" s="59" t="s">
         <v>118</v>
       </c>
-      <c r="E4" s="79" t="s">
+      <c r="E4" s="59" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="5" ht="18" customHeight="1" spans="1:11">
-      <c r="A5" s="80" t="s">
+    <row r="5" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="200" t="s">
         <v>120</v>
       </c>
-      <c r="B5" s="81" t="s">
+      <c r="B5" s="61" t="s">
         <v>121</v>
       </c>
-      <c r="C5" s="82" t="s">
+      <c r="C5" s="62" t="s">
         <v>122</v>
       </c>
-      <c r="D5" s="80" t="s">
+      <c r="D5" s="60" t="s">
         <v>122</v>
       </c>
-      <c r="E5" s="80" t="s">
+      <c r="E5" s="60" t="s">
         <v>122</v>
       </c>
-      <c r="J5" s="88"/>
-      <c r="K5" s="87"/>
-    </row>
-    <row r="6" ht="18" customHeight="1" spans="1:11">
-      <c r="A6" s="80"/>
-      <c r="B6" s="81" t="s">
+      <c r="J5" s="66"/>
+      <c r="K5" s="65"/>
+    </row>
+    <row r="6" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="200"/>
+      <c r="B6" s="61" t="s">
         <v>123</v>
       </c>
-      <c r="C6" s="82" t="s">
+      <c r="C6" s="62" t="s">
         <v>122</v>
       </c>
-      <c r="D6" s="80" t="s">
+      <c r="D6" s="60" t="s">
         <v>122</v>
       </c>
-      <c r="E6" s="80" t="s">
+      <c r="E6" s="60" t="s">
         <v>122</v>
       </c>
-      <c r="J6" s="88"/>
-      <c r="K6" s="87"/>
-    </row>
-    <row r="7" ht="18" customHeight="1" spans="1:11">
-      <c r="A7" s="80"/>
-      <c r="B7" s="81" t="s">
+      <c r="J6" s="66"/>
+      <c r="K6" s="65"/>
+    </row>
+    <row r="7" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="200"/>
+      <c r="B7" s="61" t="s">
         <v>124</v>
       </c>
-      <c r="C7" s="82" t="s">
+      <c r="C7" s="62" t="s">
         <v>122</v>
       </c>
-      <c r="D7" s="80" t="s">
+      <c r="D7" s="60" t="s">
         <v>122</v>
       </c>
-      <c r="E7" s="80" t="s">
+      <c r="E7" s="60" t="s">
         <v>122</v>
       </c>
-      <c r="I7" s="87"/>
-      <c r="J7" s="88"/>
-      <c r="K7" s="87"/>
-    </row>
-    <row r="8" ht="18" customHeight="1" spans="1:11">
-      <c r="A8" s="80"/>
-      <c r="B8" s="81" t="s">
+      <c r="I7" s="65"/>
+      <c r="J7" s="66"/>
+      <c r="K7" s="65"/>
+    </row>
+    <row r="8" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="200"/>
+      <c r="B8" s="61" t="s">
         <v>125</v>
       </c>
-      <c r="C8" s="82" t="s">
+      <c r="C8" s="62" t="s">
         <v>122</v>
       </c>
-      <c r="D8" s="80" t="s">
+      <c r="D8" s="60" t="s">
         <v>122</v>
       </c>
-      <c r="E8" s="80" t="s">
+      <c r="E8" s="60" t="s">
         <v>122</v>
       </c>
-      <c r="I8" s="87"/>
-      <c r="J8" s="88"/>
-      <c r="K8" s="87"/>
-    </row>
-    <row r="9" ht="18" customHeight="1" spans="1:9">
-      <c r="A9" s="83" t="s">
+      <c r="I8" s="65"/>
+      <c r="J8" s="66"/>
+      <c r="K8" s="65"/>
+    </row>
+    <row r="9" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="201" t="s">
         <v>126</v>
       </c>
-      <c r="B9" s="84" t="s">
+      <c r="B9" s="63" t="s">
         <v>127</v>
       </c>
-      <c r="C9" s="85" t="s">
+      <c r="C9" s="64" t="s">
         <v>122</v>
       </c>
-      <c r="D9" s="85" t="s">
+      <c r="D9" s="64" t="s">
         <v>122</v>
       </c>
-      <c r="E9" s="85" t="s">
+      <c r="E9" s="64" t="s">
         <v>122</v>
       </c>
-      <c r="H9" s="87"/>
-      <c r="I9" s="87"/>
-    </row>
-    <row r="10" ht="18" customHeight="1" spans="1:9">
-      <c r="A10" s="83"/>
-      <c r="B10" s="84" t="s">
+      <c r="H9" s="65"/>
+      <c r="I9" s="65"/>
+    </row>
+    <row r="10" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="201"/>
+      <c r="B10" s="63" t="s">
         <v>128</v>
       </c>
-      <c r="C10" s="85" t="s">
+      <c r="C10" s="64" t="s">
         <v>122</v>
       </c>
-      <c r="D10" s="85" t="s">
+      <c r="D10" s="64" t="s">
         <v>122</v>
       </c>
-      <c r="E10" s="85" t="s">
+      <c r="E10" s="64" t="s">
         <v>122</v>
       </c>
-      <c r="F10" s="87"/>
-      <c r="H10" s="87"/>
-      <c r="I10" s="87"/>
-    </row>
-    <row r="11" ht="18" customHeight="1" spans="1:9">
-      <c r="A11" s="83"/>
-      <c r="B11" s="84" t="s">
+      <c r="F10" s="65"/>
+      <c r="H10" s="65"/>
+      <c r="I10" s="65"/>
+    </row>
+    <row r="11" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="201"/>
+      <c r="B11" s="63" t="s">
         <v>129</v>
       </c>
-      <c r="C11" s="85" t="s">
+      <c r="C11" s="64" t="s">
         <v>122</v>
       </c>
-      <c r="D11" s="85" t="s">
+      <c r="D11" s="64" t="s">
         <v>122</v>
       </c>
-      <c r="E11" s="85" t="s">
+      <c r="E11" s="64" t="s">
         <v>122</v>
       </c>
-      <c r="F11" s="87"/>
-      <c r="H11" s="87"/>
-      <c r="I11" s="87"/>
-    </row>
-    <row r="12" ht="18" customHeight="1" spans="1:9">
-      <c r="A12" s="83"/>
-      <c r="B12" s="84" t="s">
+      <c r="F11" s="65"/>
+      <c r="H11" s="65"/>
+      <c r="I11" s="65"/>
+    </row>
+    <row r="12" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="201"/>
+      <c r="B12" s="63" t="s">
         <v>130</v>
       </c>
-      <c r="C12" s="85" t="s">
+      <c r="C12" s="64" t="s">
         <v>122</v>
       </c>
-      <c r="D12" s="85" t="s">
+      <c r="D12" s="64" t="s">
         <v>122</v>
       </c>
-      <c r="E12" s="85" t="s">
+      <c r="E12" s="64" t="s">
         <v>122</v>
       </c>
-      <c r="F12" s="87"/>
-      <c r="H12" s="87"/>
-      <c r="I12" s="87"/>
-    </row>
-    <row r="13" ht="18.75" customHeight="1"/>
+      <c r="F12" s="65"/>
+      <c r="H12" s="65"/>
+      <c r="I12" s="65"/>
+    </row>
+    <row r="13" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="A1:E1"/>
@@ -7241,524 +6847,523 @@
     <mergeCell ref="A9:A12"/>
     <mergeCell ref="B2:B4"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="9"/>
   </sheetPr>
   <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A15" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.2857142857143" defaultRowHeight="12.8"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.33203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="6.14285714285714" style="31" customWidth="1"/>
-    <col min="2" max="2" width="4.42857142857143" style="27" customWidth="1"/>
-    <col min="3" max="3" width="5.14285714285714" style="27" customWidth="1"/>
-    <col min="4" max="4" width="16.5714285714286" style="32" customWidth="1"/>
-    <col min="5" max="5" width="23.1428571428571" style="33" customWidth="1"/>
-    <col min="6" max="6" width="24.5714285714286" style="33" customWidth="1"/>
-    <col min="7" max="7" width="26.7142857142857" style="33" customWidth="1"/>
-    <col min="8" max="9" width="26.2857142857143" style="34" customWidth="1"/>
-    <col min="10" max="16384" width="10.2857142857143" style="34"/>
+    <col min="1" max="1" width="6.1640625" style="21" customWidth="1"/>
+    <col min="2" max="2" width="4.5" style="17" customWidth="1"/>
+    <col min="3" max="3" width="5.1640625" style="17" customWidth="1"/>
+    <col min="4" max="4" width="16.5" style="22" customWidth="1"/>
+    <col min="5" max="5" width="23.1640625" style="23" customWidth="1"/>
+    <col min="6" max="6" width="24.5" style="23" customWidth="1"/>
+    <col min="7" max="7" width="26.6640625" style="23" customWidth="1"/>
+    <col min="8" max="9" width="26.33203125" style="24" customWidth="1"/>
+    <col min="10" max="16384" width="10.33203125" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" s="27" customFormat="1" ht="16.5" customHeight="1" spans="1:9">
-      <c r="A1" s="35" t="s">
+    <row r="1" spans="1:9" s="17" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="202" t="s">
         <v>131</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-    </row>
-    <row r="2" s="27" customFormat="1" spans="1:9">
-      <c r="A2" s="36" t="s">
+      <c r="B1" s="202"/>
+      <c r="C1" s="202"/>
+      <c r="D1" s="202"/>
+      <c r="E1" s="202"/>
+      <c r="F1" s="202"/>
+      <c r="G1" s="202"/>
+      <c r="H1" s="202"/>
+      <c r="I1" s="202"/>
+    </row>
+    <row r="2" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="205" t="s">
         <v>132</v>
       </c>
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="203" t="s">
         <v>133</v>
       </c>
-      <c r="C2" s="37" t="s">
+      <c r="C2" s="203" t="s">
         <v>134</v>
       </c>
-      <c r="D2" s="37" t="s">
+      <c r="D2" s="203" t="s">
         <v>135</v>
       </c>
-      <c r="E2" s="37" t="s">
+      <c r="E2" s="203" t="s">
         <v>136</v>
       </c>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="63"/>
-    </row>
-    <row r="3" s="27" customFormat="1" ht="13" spans="1:9">
-      <c r="A3" s="38"/>
-      <c r="B3" s="39"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39" t="s">
+      <c r="F2" s="203"/>
+      <c r="G2" s="203"/>
+      <c r="H2" s="203"/>
+      <c r="I2" s="204"/>
+    </row>
+    <row r="3" spans="1:9" s="17" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="206"/>
+      <c r="B3" s="209"/>
+      <c r="C3" s="209"/>
+      <c r="D3" s="209"/>
+      <c r="E3" s="25" t="s">
         <v>137</v>
       </c>
-      <c r="F3" s="39" t="s">
+      <c r="F3" s="25" t="s">
         <v>138</v>
       </c>
-      <c r="G3" s="39" t="s">
+      <c r="G3" s="25" t="s">
         <v>139</v>
       </c>
-      <c r="H3" s="39" t="s">
+      <c r="H3" s="25" t="s">
         <v>140</v>
       </c>
-      <c r="I3" s="64" t="s">
+      <c r="I3" s="48" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="4" s="28" customFormat="1" ht="138.75" customHeight="1" spans="1:9">
-      <c r="A4" s="40" t="s">
+    <row r="4" spans="1:9" s="18" customFormat="1" ht="138.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="207" t="s">
         <v>120</v>
       </c>
-      <c r="B4" s="41">
+      <c r="B4" s="26">
         <v>1</v>
       </c>
-      <c r="C4" s="42" t="s">
+      <c r="C4" s="27" t="s">
         <v>121</v>
       </c>
-      <c r="D4" s="43" t="s">
+      <c r="D4" s="28" t="s">
         <v>142</v>
       </c>
-      <c r="E4" s="53" t="s">
+      <c r="E4" s="38" t="s">
         <v>143</v>
       </c>
-      <c r="F4" s="53" t="s">
+      <c r="F4" s="38" t="s">
         <v>144</v>
       </c>
-      <c r="G4" s="53" t="s">
+      <c r="G4" s="38" t="s">
         <v>145</v>
       </c>
-      <c r="H4" s="53" t="s">
+      <c r="H4" s="38" t="s">
         <v>146</v>
       </c>
-      <c r="I4" s="65" t="s">
+      <c r="I4" s="49" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="5" s="28" customFormat="1" ht="101" spans="1:9">
-      <c r="A5" s="40"/>
-      <c r="B5" s="41">
+    <row r="5" spans="1:9" s="18" customFormat="1" ht="99" x14ac:dyDescent="0.15">
+      <c r="A5" s="207"/>
+      <c r="B5" s="26">
         <v>2</v>
       </c>
-      <c r="C5" s="42" t="s">
+      <c r="C5" s="27" t="s">
         <v>123</v>
       </c>
-      <c r="D5" s="44" t="s">
+      <c r="D5" s="29" t="s">
         <v>148</v>
       </c>
-      <c r="E5" s="54" t="s">
+      <c r="E5" s="39" t="s">
         <v>149</v>
       </c>
-      <c r="F5" s="54" t="s">
+      <c r="F5" s="39" t="s">
         <v>150</v>
       </c>
-      <c r="G5" s="54" t="s">
+      <c r="G5" s="39" t="s">
         <v>151</v>
       </c>
-      <c r="H5" s="53" t="s">
+      <c r="H5" s="38" t="s">
         <v>152</v>
       </c>
-      <c r="I5" s="66" t="s">
+      <c r="I5" s="50" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="6" s="28" customFormat="1" ht="112" spans="1:9">
-      <c r="A6" s="40"/>
-      <c r="B6" s="41">
+    <row r="6" spans="1:9" s="18" customFormat="1" ht="110" x14ac:dyDescent="0.15">
+      <c r="A6" s="207"/>
+      <c r="B6" s="26">
         <v>3</v>
       </c>
-      <c r="C6" s="42" t="s">
+      <c r="C6" s="27" t="s">
         <v>124</v>
       </c>
-      <c r="D6" s="43" t="s">
+      <c r="D6" s="28" t="s">
         <v>154</v>
       </c>
-      <c r="E6" s="55" t="s">
+      <c r="E6" s="40" t="s">
         <v>155</v>
       </c>
-      <c r="F6" s="55" t="s">
+      <c r="F6" s="40" t="s">
         <v>156</v>
       </c>
-      <c r="G6" s="55" t="s">
+      <c r="G6" s="40" t="s">
         <v>157</v>
       </c>
-      <c r="H6" s="48" t="s">
+      <c r="H6" s="33" t="s">
         <v>158</v>
       </c>
-      <c r="I6" s="67" t="s">
+      <c r="I6" s="51" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="7" s="28" customFormat="1" ht="135" spans="1:9">
-      <c r="A7" s="40"/>
-      <c r="B7" s="41">
+    <row r="7" spans="1:9" s="18" customFormat="1" ht="132" x14ac:dyDescent="0.15">
+      <c r="A7" s="207"/>
+      <c r="B7" s="26">
         <v>4</v>
       </c>
-      <c r="C7" s="42" t="s">
+      <c r="C7" s="27" t="s">
         <v>125</v>
       </c>
-      <c r="D7" s="44" t="s">
+      <c r="D7" s="29" t="s">
         <v>160</v>
       </c>
-      <c r="E7" s="54" t="s">
+      <c r="E7" s="39" t="s">
         <v>161</v>
       </c>
-      <c r="F7" s="54" t="s">
+      <c r="F7" s="39" t="s">
         <v>162</v>
       </c>
-      <c r="G7" s="54" t="s">
+      <c r="G7" s="39" t="s">
         <v>163</v>
       </c>
-      <c r="H7" s="54" t="s">
+      <c r="H7" s="39" t="s">
         <v>164</v>
       </c>
-      <c r="I7" s="66" t="s">
+      <c r="I7" s="50" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="8" s="28" customFormat="1" ht="101" spans="1:9">
-      <c r="A8" s="45" t="s">
+    <row r="8" spans="1:9" s="18" customFormat="1" ht="110" x14ac:dyDescent="0.15">
+      <c r="A8" s="208" t="s">
         <v>126</v>
       </c>
-      <c r="B8" s="41">
+      <c r="B8" s="26">
         <v>5</v>
       </c>
-      <c r="C8" s="42" t="s">
+      <c r="C8" s="27" t="s">
         <v>166</v>
       </c>
-      <c r="D8" s="44" t="s">
+      <c r="D8" s="29" t="s">
         <v>167</v>
       </c>
-      <c r="E8" s="54" t="s">
+      <c r="E8" s="39" t="s">
         <v>168</v>
       </c>
-      <c r="F8" s="54" t="s">
+      <c r="F8" s="39" t="s">
         <v>169</v>
       </c>
-      <c r="G8" s="54" t="s">
+      <c r="G8" s="39" t="s">
         <v>170</v>
       </c>
-      <c r="H8" s="53" t="s">
+      <c r="H8" s="38" t="s">
         <v>171</v>
       </c>
-      <c r="I8" s="66" t="s">
+      <c r="I8" s="50" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="9" s="29" customFormat="1" ht="126" customHeight="1" spans="1:9">
-      <c r="A9" s="45"/>
-      <c r="B9" s="41">
+    <row r="9" spans="1:9" s="19" customFormat="1" ht="126" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="208"/>
+      <c r="B9" s="26">
         <v>6</v>
       </c>
-      <c r="C9" s="42" t="s">
+      <c r="C9" s="27" t="s">
         <v>173</v>
       </c>
-      <c r="D9" s="44" t="s">
+      <c r="D9" s="29" t="s">
         <v>174</v>
       </c>
-      <c r="E9" s="54" t="s">
+      <c r="E9" s="39" t="s">
         <v>175</v>
       </c>
-      <c r="F9" s="54" t="s">
+      <c r="F9" s="39" t="s">
         <v>176</v>
       </c>
-      <c r="G9" s="54" t="s">
+      <c r="G9" s="39" t="s">
         <v>177</v>
       </c>
-      <c r="H9" s="54" t="s">
+      <c r="H9" s="39" t="s">
         <v>178</v>
       </c>
-      <c r="I9" s="66" t="s">
+      <c r="I9" s="50" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="10" s="29" customFormat="1" ht="124" spans="1:9">
-      <c r="A10" s="45"/>
-      <c r="B10" s="41">
+    <row r="10" spans="1:9" s="19" customFormat="1" ht="121" x14ac:dyDescent="0.15">
+      <c r="A10" s="208"/>
+      <c r="B10" s="26">
         <v>7</v>
       </c>
-      <c r="C10" s="42" t="s">
+      <c r="C10" s="27" t="s">
         <v>180</v>
       </c>
-      <c r="D10" s="44" t="s">
+      <c r="D10" s="29" t="s">
         <v>181</v>
       </c>
-      <c r="E10" s="56" t="s">
+      <c r="E10" s="41" t="s">
         <v>182</v>
       </c>
-      <c r="F10" s="54" t="s">
+      <c r="F10" s="39" t="s">
         <v>183</v>
       </c>
-      <c r="G10" s="54" t="s">
+      <c r="G10" s="39" t="s">
         <v>184</v>
       </c>
-      <c r="H10" s="57" t="s">
+      <c r="H10" s="42" t="s">
         <v>185</v>
       </c>
-      <c r="I10" s="66" t="s">
+      <c r="I10" s="50" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="11" s="29" customFormat="1" ht="112" spans="1:9">
-      <c r="A11" s="45"/>
-      <c r="B11" s="41">
+    <row r="11" spans="1:9" s="19" customFormat="1" ht="121" x14ac:dyDescent="0.15">
+      <c r="A11" s="208"/>
+      <c r="B11" s="26">
         <v>8</v>
       </c>
-      <c r="C11" s="42" t="s">
+      <c r="C11" s="27" t="s">
         <v>187</v>
       </c>
-      <c r="D11" s="44" t="s">
+      <c r="D11" s="29" t="s">
         <v>188</v>
       </c>
-      <c r="E11" s="54" t="s">
+      <c r="E11" s="39" t="s">
         <v>189</v>
       </c>
-      <c r="F11" s="54" t="s">
+      <c r="F11" s="39" t="s">
         <v>190</v>
       </c>
-      <c r="G11" s="54" t="s">
+      <c r="G11" s="39" t="s">
         <v>191</v>
       </c>
-      <c r="H11" s="54" t="s">
+      <c r="H11" s="39" t="s">
         <v>192</v>
       </c>
-      <c r="I11" s="66" t="s">
+      <c r="I11" s="50" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="12" s="30" customFormat="1" ht="112" spans="1:9">
-      <c r="A12" s="45"/>
-      <c r="B12" s="41">
+    <row r="12" spans="1:9" s="20" customFormat="1" ht="110" x14ac:dyDescent="0.15">
+      <c r="A12" s="208"/>
+      <c r="B12" s="26">
         <v>9</v>
       </c>
-      <c r="C12" s="42" t="s">
+      <c r="C12" s="27" t="s">
         <v>194</v>
       </c>
-      <c r="D12" s="44" t="s">
+      <c r="D12" s="29" t="s">
         <v>195</v>
       </c>
-      <c r="E12" s="57" t="s">
+      <c r="E12" s="42" t="s">
         <v>196</v>
       </c>
-      <c r="F12" s="57" t="s">
+      <c r="F12" s="42" t="s">
         <v>197</v>
       </c>
-      <c r="G12" s="54" t="s">
+      <c r="G12" s="39" t="s">
         <v>198</v>
       </c>
-      <c r="H12" s="54" t="s">
+      <c r="H12" s="39" t="s">
         <v>199</v>
       </c>
-      <c r="I12" s="68" t="s">
+      <c r="I12" s="52" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="13" s="28" customFormat="1" ht="101" spans="1:9">
-      <c r="A13" s="45"/>
-      <c r="B13" s="41">
+    <row r="13" spans="1:9" s="18" customFormat="1" ht="88" x14ac:dyDescent="0.15">
+      <c r="A13" s="208"/>
+      <c r="B13" s="26">
         <v>10</v>
       </c>
-      <c r="C13" s="42" t="s">
+      <c r="C13" s="27" t="s">
         <v>201</v>
       </c>
-      <c r="D13" s="44" t="s">
+      <c r="D13" s="29" t="s">
         <v>202</v>
       </c>
-      <c r="E13" s="54" t="s">
+      <c r="E13" s="39" t="s">
         <v>203</v>
       </c>
-      <c r="F13" s="54" t="s">
+      <c r="F13" s="39" t="s">
         <v>204</v>
       </c>
-      <c r="G13" s="54" t="s">
+      <c r="G13" s="39" t="s">
         <v>205</v>
       </c>
-      <c r="H13" s="54" t="s">
+      <c r="H13" s="39" t="s">
         <v>206</v>
       </c>
-      <c r="I13" s="66" t="s">
+      <c r="I13" s="50" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="14" s="29" customFormat="1" ht="112" spans="1:9">
-      <c r="A14" s="45"/>
-      <c r="B14" s="41">
+    <row r="14" spans="1:9" s="19" customFormat="1" ht="99" x14ac:dyDescent="0.15">
+      <c r="A14" s="208"/>
+      <c r="B14" s="26">
         <v>11</v>
       </c>
-      <c r="C14" s="42" t="s">
+      <c r="C14" s="27" t="s">
         <v>208</v>
       </c>
-      <c r="D14" s="46" t="s">
+      <c r="D14" s="31" t="s">
         <v>209</v>
       </c>
-      <c r="E14" s="54" t="s">
+      <c r="E14" s="39" t="s">
         <v>210</v>
       </c>
-      <c r="F14" s="54" t="s">
+      <c r="F14" s="39" t="s">
         <v>211</v>
       </c>
-      <c r="G14" s="54" t="s">
+      <c r="G14" s="39" t="s">
         <v>212</v>
       </c>
-      <c r="H14" s="58" t="s">
+      <c r="H14" s="43" t="s">
         <v>213</v>
       </c>
-      <c r="I14" s="69" t="s">
+      <c r="I14" s="53" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="15" s="28" customFormat="1" ht="163.5" customHeight="1" spans="1:9">
-      <c r="A15" s="45"/>
-      <c r="B15" s="41">
+    <row r="15" spans="1:9" s="18" customFormat="1" ht="163.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="208"/>
+      <c r="B15" s="26">
         <v>12</v>
       </c>
-      <c r="C15" s="42" t="s">
+      <c r="C15" s="27" t="s">
         <v>215</v>
       </c>
-      <c r="D15" s="44" t="s">
+      <c r="D15" s="29" t="s">
         <v>216</v>
       </c>
-      <c r="E15" s="54" t="s">
+      <c r="E15" s="39" t="s">
         <v>217</v>
       </c>
-      <c r="F15" s="54" t="s">
+      <c r="F15" s="39" t="s">
         <v>218</v>
       </c>
-      <c r="G15" s="59" t="s">
+      <c r="G15" s="44" t="s">
         <v>219</v>
       </c>
-      <c r="H15" s="53" t="s">
+      <c r="H15" s="38" t="s">
         <v>220</v>
       </c>
-      <c r="I15" s="66" t="s">
+      <c r="I15" s="50" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="16" s="28" customFormat="1" ht="101" spans="1:9">
-      <c r="A16" s="45"/>
-      <c r="B16" s="41">
+    <row r="16" spans="1:9" s="18" customFormat="1" ht="99" x14ac:dyDescent="0.15">
+      <c r="A16" s="208"/>
+      <c r="B16" s="26">
         <v>13</v>
       </c>
-      <c r="C16" s="42" t="s">
+      <c r="C16" s="27" t="s">
         <v>222</v>
       </c>
-      <c r="D16" s="44" t="s">
+      <c r="D16" s="29" t="s">
         <v>223</v>
       </c>
-      <c r="E16" s="53" t="s">
+      <c r="E16" s="38" t="s">
         <v>224</v>
       </c>
-      <c r="F16" s="53" t="s">
+      <c r="F16" s="38" t="s">
         <v>225</v>
       </c>
-      <c r="G16" s="53" t="s">
+      <c r="G16" s="38" t="s">
         <v>226</v>
       </c>
-      <c r="H16" s="53" t="s">
+      <c r="H16" s="38" t="s">
         <v>227</v>
       </c>
-      <c r="I16" s="68" t="s">
+      <c r="I16" s="52" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="17" s="30" customFormat="1" ht="175.5" customHeight="1" spans="1:9">
-      <c r="A17" s="45"/>
-      <c r="B17" s="41">
+    <row r="17" spans="1:9" s="20" customFormat="1" ht="175.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="30"/>
+      <c r="B17" s="26">
         <v>14</v>
       </c>
-      <c r="C17" s="42" t="s">
+      <c r="C17" s="27" t="s">
         <v>127</v>
       </c>
-      <c r="D17" s="47" t="s">
+      <c r="D17" s="32" t="s">
         <v>229</v>
       </c>
-      <c r="E17" s="60" t="s">
+      <c r="E17" s="45" t="s">
         <v>230</v>
       </c>
-      <c r="F17" s="60" t="s">
+      <c r="F17" s="45" t="s">
         <v>231</v>
       </c>
-      <c r="G17" s="60" t="s">
+      <c r="G17" s="45" t="s">
         <v>232</v>
       </c>
-      <c r="H17" s="53" t="s">
+      <c r="H17" s="38" t="s">
         <v>233</v>
       </c>
-      <c r="I17" s="68" t="s">
+      <c r="I17" s="52" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="18" s="30" customFormat="1" ht="101" spans="1:9">
-      <c r="A18" s="45"/>
-      <c r="B18" s="41">
+    <row r="18" spans="1:9" s="20" customFormat="1" ht="99" x14ac:dyDescent="0.15">
+      <c r="A18" s="30"/>
+      <c r="B18" s="26">
         <v>15</v>
       </c>
-      <c r="C18" s="42" t="s">
+      <c r="C18" s="27" t="s">
         <v>235</v>
       </c>
-      <c r="D18" s="48" t="s">
+      <c r="D18" s="33" t="s">
         <v>236</v>
       </c>
-      <c r="E18" s="53" t="s">
+      <c r="E18" s="38" t="s">
         <v>237</v>
       </c>
-      <c r="F18" s="60" t="s">
+      <c r="F18" s="45" t="s">
         <v>238</v>
       </c>
-      <c r="G18" s="61" t="s">
+      <c r="G18" s="46" t="s">
         <v>239</v>
       </c>
-      <c r="H18" s="53" t="s">
+      <c r="H18" s="38" t="s">
         <v>240</v>
       </c>
-      <c r="I18" s="68" t="s">
+      <c r="I18" s="52" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="19" s="30" customFormat="1" ht="124.75" spans="1:9">
-      <c r="A19" s="49"/>
-      <c r="B19" s="50">
+    <row r="19" spans="1:9" s="20" customFormat="1" ht="99" x14ac:dyDescent="0.15">
+      <c r="A19" s="34"/>
+      <c r="B19" s="35">
         <v>16</v>
       </c>
-      <c r="C19" s="51" t="s">
+      <c r="C19" s="36" t="s">
         <v>128</v>
       </c>
-      <c r="D19" s="52" t="s">
+      <c r="D19" s="37" t="s">
         <v>242</v>
       </c>
-      <c r="E19" s="62" t="s">
+      <c r="E19" s="47" t="s">
         <v>243</v>
       </c>
-      <c r="F19" s="62" t="s">
+      <c r="F19" s="47" t="s">
         <v>244</v>
       </c>
-      <c r="G19" s="62" t="s">
+      <c r="G19" s="47" t="s">
         <v>245</v>
       </c>
-      <c r="H19" s="62" t="s">
+      <c r="H19" s="47" t="s">
         <v>246</v>
       </c>
-      <c r="I19" s="70" t="s">
+      <c r="I19" s="54" t="s">
         <v>247</v>
       </c>
     </row>
@@ -7773,201 +7378,311 @@
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="D2:D3"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
     <tabColor theme="9" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B2"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2:F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.2857142857143" defaultRowHeight="12.8" outlineLevelCol="6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="7.85714285714286" style="3" customWidth="1"/>
-    <col min="2" max="2" width="19.9375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="30.5714285714286" style="3" customWidth="1"/>
-    <col min="4" max="4" width="34.4285714285714" style="3" customWidth="1"/>
-    <col min="5" max="5" width="35.4285714285714" style="3" customWidth="1"/>
-    <col min="6" max="6" width="33.8571428571429" style="3" customWidth="1"/>
-    <col min="7" max="7" width="31" style="3" customWidth="1"/>
-    <col min="8" max="16384" width="16.2857142857143" style="3"/>
+    <col min="1" max="1" width="7.83203125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="35.6640625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="34.5" style="3" customWidth="1"/>
+    <col min="4" max="4" width="35.5" style="3" customWidth="1"/>
+    <col min="5" max="5" width="33.83203125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="31" style="3" customWidth="1"/>
+    <col min="7" max="16384" width="16.33203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" ht="20.25" customHeight="1" spans="1:7">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="210"/>
+      <c r="B1" s="210"/>
+      <c r="C1" s="210"/>
+      <c r="D1" s="210"/>
+      <c r="E1" s="210"/>
+      <c r="F1" s="210"/>
+    </row>
+    <row r="2" spans="1:6" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="4" t="s">
         <v>248</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-    </row>
-    <row r="2" s="1" customFormat="1" ht="18.75" customHeight="1" spans="1:7">
-      <c r="A2" s="5" t="s">
+      <c r="B2" s="5" t="s">
         <v>249</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="10" t="s">
         <v>252</v>
       </c>
-      <c r="F2" s="17" t="s">
+      <c r="F2" s="11" t="s">
         <v>253</v>
       </c>
-      <c r="G2" s="18" t="s">
+    </row>
+    <row r="3" spans="1:6" s="2" customFormat="1" ht="22" x14ac:dyDescent="0.15">
+      <c r="A3" s="4" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="3" s="2" customFormat="1" ht="23" spans="1:7">
-      <c r="A3" s="5" t="s">
+      <c r="B3" s="6" t="s">
         <v>255</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="6" t="s">
         <v>256</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="12" t="s">
         <v>257</v>
       </c>
-      <c r="E3" s="19" t="s">
+      <c r="E3" s="13" t="s">
         <v>258</v>
       </c>
-      <c r="F3" s="20" t="s">
+      <c r="F3" s="14" t="s">
         <v>259</v>
       </c>
-      <c r="G3" s="21" t="s">
+    </row>
+    <row r="4" spans="1:6" s="2" customFormat="1" ht="61" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="4"/>
+      <c r="B4" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="D4" s="134" t="s">
+        <v>271</v>
+      </c>
+      <c r="E4" s="135"/>
+      <c r="F4" s="134"/>
+    </row>
+    <row r="5" spans="1:6" s="2" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="4" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="4" s="2" customFormat="1" ht="34.5" customHeight="1" spans="1:7">
-      <c r="A4" s="7" t="s">
+      <c r="B5" s="7"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="7"/>
+    </row>
+    <row r="6" spans="1:6" ht="159" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B6" s="9" t="s">
+        <v>279</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>272</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>273</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>274</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="119" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="11"/>
-    </row>
-    <row r="5" s="2" customFormat="1" ht="35.25" customHeight="1" spans="1:7">
-      <c r="A5" s="7"/>
-      <c r="B5" s="10" t="s">
+      <c r="B7" s="9" t="s">
+        <v>276</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>277</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="F7" s="16"/>
+    </row>
+    <row r="8" spans="1:6" ht="48.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="136" t="s">
         <v>263</v>
       </c>
-      <c r="C5" s="11"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="11"/>
-    </row>
-    <row r="6" ht="36" customHeight="1" spans="1:7">
-      <c r="A6" s="7"/>
-      <c r="B6" s="10" t="s">
-        <v>263</v>
-      </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="13"/>
-    </row>
-    <row r="7" ht="28.5" customHeight="1" spans="1:7">
-      <c r="A7" s="7" t="s">
+      <c r="B8" s="7" t="s">
         <v>264</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="C8" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="13"/>
-    </row>
-    <row r="8" ht="31.5" customHeight="1" spans="1:7">
-      <c r="A8" s="7"/>
-      <c r="B8" s="14" t="s">
+      <c r="D8" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="13"/>
-    </row>
-    <row r="9" ht="31.5" customHeight="1" spans="1:7">
-      <c r="A9" s="7"/>
-      <c r="B9" s="14" t="s">
+      <c r="E8" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="C9" s="15"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="26"/>
-    </row>
-    <row r="10" ht="31.5" customHeight="1" spans="1:7">
-      <c r="A10" s="5" t="s">
+      <c r="F8" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="26"/>
-    </row>
-    <row r="11" ht="48.75" customHeight="1" spans="1:7">
-      <c r="A11" s="16" t="s">
-        <v>269</v>
-      </c>
-      <c r="B11" s="16"/>
-      <c r="C11" s="11" t="s">
-        <v>270</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>271</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>272</v>
-      </c>
-      <c r="F11" s="11" t="s">
-        <v>273</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>274</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="A7:A9"/>
+  <mergeCells count="1">
+    <mergeCell ref="A1:F1"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0.15625" bottom="0.15625" header="0.118055555555556" footer="0.118055555555556"/>
   <pageSetup paperSize="9" orientation="landscape"/>
-  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="16.5" customWidth="1"/>
+    <col min="2" max="2" width="13.83203125" customWidth="1"/>
+    <col min="3" max="3" width="41.6640625" style="138" customWidth="1"/>
+    <col min="4" max="4" width="52" customWidth="1"/>
+    <col min="5" max="5" width="44.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="14" x14ac:dyDescent="0.15">
+      <c r="A1" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="F1" s="136" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="66" x14ac:dyDescent="0.15">
+      <c r="A2" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="C2" s="137" t="s">
+        <v>281</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="129" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="C3" s="137" t="s">
+        <v>283</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>272</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="254" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="C4" s="134" t="s">
+        <v>289</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>273</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>285</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="204" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>258</v>
+      </c>
+      <c r="C5" s="134" t="s">
+        <v>288</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>274</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>286</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="154" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>259</v>
+      </c>
+      <c r="C6" s="134" t="s">
+        <v>287</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>275</v>
+      </c>
+      <c r="E6" s="16"/>
+      <c r="F6" s="7" t="s">
+        <v>268</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>